--- a/docs/classifiche/classifica2025.xlsx
+++ b/docs/classifiche/classifica2025.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="95">
   <si>
     <t>STAGIONE 2025: MOTO 2</t>
   </si>
@@ -94,12 +94,12 @@
     <t>Fantic Racing</t>
   </si>
   <si>
+    <t>RIT</t>
+  </si>
+  <si>
     <t>Xavier Cardalus</t>
   </si>
   <si>
-    <t>RIT</t>
-  </si>
-  <si>
     <t>Lorenzo Gabrielli</t>
   </si>
   <si>
@@ -259,16 +259,43 @@
     <t>1:32.302, Vietti</t>
   </si>
   <si>
+    <t>2:06.986</t>
+  </si>
+  <si>
+    <t>1:56, 306</t>
+  </si>
+  <si>
+    <t>1:40, 413</t>
+  </si>
+  <si>
     <t>1:33.839, pole</t>
   </si>
   <si>
     <t>1:34.402, 15esimo</t>
   </si>
   <si>
+    <t>2:08.976, 17esimo</t>
+  </si>
+  <si>
+    <t>1:58.111, 15esimo</t>
+  </si>
+  <si>
+    <t>1:40, 413, pole</t>
+  </si>
+  <si>
     <t>1:34.373, 2</t>
   </si>
   <si>
     <t>1:34.006, 14esimo</t>
+  </si>
+  <si>
+    <t>2:08.426, 15esimo</t>
+  </si>
+  <si>
+    <t>1:58.110, 14esimo</t>
+  </si>
+  <si>
+    <t>1:41.182, 2</t>
   </si>
 </sst>
 </file>
@@ -352,6 +379,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF674EA7"/>
+        <bgColor rgb="FF674EA7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF999999"/>
         <bgColor rgb="FF999999"/>
       </patternFill>
@@ -360,12 +393,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB45F06"/>
         <bgColor rgb="FFB45F06"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF674EA7"/>
-        <bgColor rgb="FF674EA7"/>
       </patternFill>
     </fill>
   </fills>
@@ -468,11 +495,11 @@
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -492,16 +519,16 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -746,6 +773,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="25.88"/>
     <col customWidth="1" min="3" max="3" width="26.75"/>
+    <col customWidth="1" min="4" max="4" width="14.25"/>
+    <col customWidth="1" min="5" max="5" width="13.88"/>
     <col customWidth="1" min="10" max="10" width="15.75"/>
     <col customWidth="1" min="26" max="27" width="14.63"/>
   </cols>
@@ -909,8 +938,8 @@
         <v>25</v>
       </c>
       <c r="B5" s="12">
-        <f>Z13 +Z11</f>
-        <v>8</v>
+        <f>Z13 +Z11 +Z7 +Z10</f>
+        <v>23</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>26</v>
@@ -921,69 +950,75 @@
       <c r="E5" s="13">
         <v>11.0</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
+      <c r="F5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
       <c r="Z5" s="3">
         <v>11.0</v>
       </c>
-      <c r="AA5" s="15">
+      <c r="AA5" s="16">
         <v>2.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
       <c r="Z6" s="3">
         <v>10.0</v>
       </c>
-      <c r="AA6" s="16">
+      <c r="AA6" s="17">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="12">
         <v>0.0</v>
@@ -991,32 +1026,36 @@
       <c r="C7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="12">
+        <v>17.0</v>
+      </c>
       <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
       <c r="Z7" s="3">
         <v>9.0</v>
       </c>
@@ -1025,31 +1064,31 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
       <c r="Z8" s="3">
         <v>8.0</v>
       </c>
@@ -1062,8 +1101,8 @@
         <v>29</v>
       </c>
       <c r="B9" s="12">
-        <f> Z4 +Z10</f>
-        <v>19</v>
+        <f> Z4 +Z10 +Z14 +Z2</f>
+        <v>41</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>30</v>
@@ -1074,26 +1113,32 @@
       <c r="E9" s="13">
         <v>10.0</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
+      <c r="F9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
       <c r="Z9" s="3">
         <v>7.0</v>
       </c>
@@ -1102,31 +1147,31 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
       <c r="Z10" s="3">
         <v>6.0</v>
       </c>
@@ -1139,38 +1184,44 @@
         <v>31</v>
       </c>
       <c r="B11" s="12">
-        <f>Z13</f>
-        <v>3</v>
+        <f>Z13 +Z9 +Z13 +Z11</f>
+        <v>18</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>28</v>
+      <c r="D11" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="E11" s="13">
         <v>13.0</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
+      <c r="F11" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="G11" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
       <c r="Z11" s="3">
         <v>5.0</v>
       </c>
@@ -1179,31 +1230,31 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
       <c r="Z12" s="3">
         <v>4.0</v>
       </c>
@@ -1216,8 +1267,8 @@
         <v>32</v>
       </c>
       <c r="B13" s="12">
-        <f>Z14 +Z8</f>
-        <v>10</v>
+        <f>Z14 +Z8 +Z11 +Z9</f>
+        <v>22</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>33</v>
@@ -1228,26 +1279,32 @@
       <c r="E13" s="13">
         <v>8.0</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
+      <c r="F13" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
       <c r="Z13" s="3">
         <v>3.0</v>
       </c>
@@ -1256,31 +1313,31 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
       <c r="Z14" s="3">
         <v>2.0</v>
       </c>
@@ -1293,8 +1350,8 @@
         <v>34</v>
       </c>
       <c r="B15" s="12">
-        <f> Z6</f>
-        <v>10</v>
+        <f> Z6 +Z5</f>
+        <v>21</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>33</v>
@@ -1302,29 +1359,35 @@
       <c r="D15" s="13">
         <v>6.0</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="12">
+        <v>18.0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
       <c r="Z15" s="3">
         <v>1.0</v>
       </c>
@@ -1333,31 +1396,31 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
       <c r="Z16" s="18"/>
       <c r="AA16" s="13">
         <v>13.0</v>
@@ -1368,8 +1431,8 @@
         <v>35</v>
       </c>
       <c r="B17" s="12">
-        <f>Z12</f>
-        <v>4</v>
+        <f>Z12 +Z4 +Z3</f>
+        <v>33</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>36</v>
@@ -1377,59 +1440,65 @@
       <c r="D17" s="13">
         <v>12.0</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
+      <c r="E17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
       <c r="AA17" s="13">
         <v>14.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
       <c r="AA18" s="13">
         <v>15.0</v>
       </c>
@@ -1439,8 +1508,8 @@
         <v>37</v>
       </c>
       <c r="B19" s="12">
-        <f> Z8 + Z2</f>
-        <v>28</v>
+        <f> Z8 + Z2 +Z5 +Z4 +Z4</f>
+        <v>65</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>36</v>
@@ -1448,123 +1517,136 @@
       <c r="D19" s="13">
         <v>8.0</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="16">
         <v>2.0</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="AA19" s="17" t="s">
-        <v>28</v>
+      <c r="F19" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="G19" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="H19" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="AA19" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="12">
-        <v>0.0</v>
+        <f>Z2 +Z2</f>
+        <v>40</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
+      <c r="D21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="G21" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
     </row>
     <row r="22">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
       <c r="Z22" s="19"/>
     </row>
     <row r="23">
@@ -1572,66 +1654,72 @@
         <v>40</v>
       </c>
       <c r="B23" s="12">
-        <f>Z9</f>
-        <v>7</v>
+        <f>Z9 +Z1 +Z10</f>
+        <v>38</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>28</v>
+      <c r="D23" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="E23" s="13">
         <v>9.0</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
+      <c r="F23" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
       <c r="Z23" s="19"/>
     </row>
     <row r="24">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
       <c r="Z24" s="19"/>
     </row>
     <row r="25">
@@ -1639,8 +1727,8 @@
         <v>41</v>
       </c>
       <c r="B25" s="12">
-        <f> Z9 + Z1</f>
-        <v>32</v>
+        <f> Z9 + Z1 +Z8 +Z3</f>
+        <v>56</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>42</v>
@@ -1651,54 +1739,60 @@
       <c r="E25" s="11">
         <v>1.0</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
+      <c r="F25" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="G25" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
       <c r="Z25" s="19"/>
     </row>
     <row r="26">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
       <c r="Z26" s="19"/>
     </row>
     <row r="27">
@@ -1706,8 +1800,8 @@
         <v>43</v>
       </c>
       <c r="B27" s="12">
-        <f>Z11 +Z6</f>
-        <v>15</v>
+        <f>Z11 +Z6 +Z6 +Z5</f>
+        <v>36</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>42</v>
@@ -1718,54 +1812,60 @@
       <c r="E27" s="13">
         <v>6.0</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
+      <c r="F27" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="G27" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
       <c r="Z27" s="19"/>
     </row>
     <row r="28">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
       <c r="Z28" s="19"/>
     </row>
     <row r="29">
@@ -1778,60 +1878,66 @@
       <c r="C29" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
+      <c r="D29" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="12">
+        <v>21.0</v>
+      </c>
+      <c r="G29" s="12">
+        <v>16.0</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
       <c r="Z29" s="19"/>
     </row>
     <row r="30">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
       <c r="Z30" s="19"/>
     </row>
     <row r="31">
@@ -1850,54 +1956,60 @@
       <c r="E31" s="12">
         <v>17.0</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
+      <c r="F31" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
       <c r="Z31" s="19"/>
     </row>
     <row r="32">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
       <c r="Z32" s="19"/>
     </row>
     <row r="33">
@@ -1905,8 +2017,8 @@
         <v>47</v>
       </c>
       <c r="B33" s="12">
-        <f> Z1 +Z4</f>
-        <v>38</v>
+        <f> Z1 +Z4 +Z7 +Z12 +Z1</f>
+        <v>76</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>48</v>
@@ -1917,54 +2029,60 @@
       <c r="E33" s="13">
         <v>4.0</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
+      <c r="F33" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="G33" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="H33" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
       <c r="Z33" s="19"/>
     </row>
     <row r="34">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
       <c r="Z34" s="19"/>
     </row>
     <row r="35">
@@ -1972,66 +2090,72 @@
         <v>49</v>
       </c>
       <c r="B35" s="12">
-        <f> Z2</f>
-        <v>20</v>
+        <f> Z2 +Z9</f>
+        <v>27</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="16">
         <v>2.0</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="14"/>
-      <c r="Y35" s="14"/>
+      <c r="E35" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
       <c r="Z35" s="19"/>
     </row>
     <row r="36">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="14"/>
-      <c r="Y36" s="14"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
       <c r="Z36" s="19"/>
     </row>
     <row r="37">
@@ -2039,74 +2163,80 @@
         <v>50</v>
       </c>
       <c r="B37" s="12">
-        <f>Z14</f>
-        <v>2</v>
+        <f>Z14 +Z15 +Z12</f>
+        <v>7</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>28</v>
+      <c r="D37" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="E37" s="13">
         <v>14.0</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="14"/>
-      <c r="Y37" s="14"/>
+      <c r="F37" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="G37" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="H37" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
       <c r="Z37" s="19"/>
     </row>
     <row r="38">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="14"/>
-      <c r="Y38" s="14"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
     </row>
     <row r="39">
       <c r="A39" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="12">
-        <f> Z10 +Z5</f>
-        <v>17</v>
+        <f> Z10 +Z5 +Z8</f>
+        <v>25</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>51</v>
@@ -2117,61 +2247,67 @@
       <c r="E39" s="13">
         <v>5.0</v>
       </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14"/>
-      <c r="X39" s="14"/>
-      <c r="Y39" s="14"/>
+      <c r="F39" s="12">
+        <v>19.0</v>
+      </c>
+      <c r="G39" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="15"/>
+      <c r="U39" s="15"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
     </row>
     <row r="40">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="14"/>
-      <c r="Y40" s="14"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
     </row>
     <row r="41">
       <c r="A41" s="12" t="s">
         <v>53</v>
       </c>
       <c r="B41" s="12">
-        <f>Z15 +Z15</f>
-        <v>2</v>
+        <f>Z15 +Z15 +Z13 +Z13</f>
+        <v>8</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>54</v>
@@ -2182,53 +2318,59 @@
       <c r="E41" s="13">
         <v>15.0</v>
       </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="14"/>
-      <c r="Y41" s="14"/>
+      <c r="F41" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="G41" s="12">
+        <v>23.0</v>
+      </c>
+      <c r="H41" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="15"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
     </row>
     <row r="42">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="14"/>
-      <c r="Y42" s="14"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="15"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
     </row>
     <row r="43">
       <c r="A43" s="12" t="s">
@@ -2240,59 +2382,65 @@
       <c r="C43" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>28</v>
+      <c r="D43" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="E43" s="12">
         <v>16.0</v>
       </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="14"/>
-      <c r="Y43" s="14"/>
+      <c r="F43" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="15"/>
     </row>
     <row r="44">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="14"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
     </row>
     <row r="45">
       <c r="A45" s="12" t="s">
@@ -2307,128 +2455,141 @@
       <c r="D45" s="12">
         <v>16.0</v>
       </c>
-      <c r="E45" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="14"/>
-      <c r="V45" s="14"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="14"/>
-      <c r="Y45" s="14"/>
+      <c r="E45" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="H45" s="12">
+        <v>17.0</v>
+      </c>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="15"/>
+      <c r="U45" s="15"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="15"/>
     </row>
     <row r="46">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="14"/>
-      <c r="Y46" s="14"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B47" s="12">
-        <v>0.0</v>
+        <f>Z15 +Z15</f>
+        <v>2</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="17" t="s">
-        <v>28</v>
+      <c r="D47" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="E47" s="12">
         <v>19.0</v>
       </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="14"/>
-      <c r="W47" s="14"/>
-      <c r="X47" s="14"/>
-      <c r="Y47" s="14"/>
+      <c r="F47" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="15"/>
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="15"/>
     </row>
     <row r="48">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
-      <c r="X48" s="14"/>
-      <c r="Y48" s="14"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
     </row>
     <row r="49">
       <c r="A49" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B49" s="12">
-        <f> Z7 +Z3</f>
-        <v>25</v>
+        <f> Z7 +Z3 +Z12 +Z14</f>
+        <v>31</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>60</v>
@@ -2436,120 +2597,133 @@
       <c r="D49" s="13">
         <v>7.0</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="17">
         <v>3.0</v>
       </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
-      <c r="X49" s="14"/>
-      <c r="Y49" s="14"/>
+      <c r="F49" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
     </row>
     <row r="50">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="14"/>
-      <c r="T50" s="14"/>
-      <c r="U50" s="14"/>
-      <c r="V50" s="14"/>
-      <c r="W50" s="14"/>
-      <c r="X50" s="14"/>
-      <c r="Y50" s="14"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="15"/>
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B51" s="12">
-        <v>0.0</v>
+        <f>Z3 +Z1</f>
+        <v>41</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
-      <c r="T51" s="14"/>
-      <c r="U51" s="14"/>
-      <c r="V51" s="14"/>
-      <c r="W51" s="14"/>
-      <c r="X51" s="14"/>
-      <c r="Y51" s="14"/>
+      <c r="D51" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="G51" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="H51" s="12">
+        <v>18.0</v>
+      </c>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="15"/>
+      <c r="Y51" s="15"/>
     </row>
     <row r="52">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14"/>
-      <c r="T52" s="14"/>
-      <c r="U52" s="14"/>
-      <c r="V52" s="14"/>
-      <c r="W52" s="14"/>
-      <c r="X52" s="14"/>
-      <c r="Y52" s="14"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
+      <c r="U52" s="15"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="15"/>
+      <c r="Y52" s="15"/>
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
@@ -2564,63 +2738,70 @@
       <c r="D53" s="12">
         <v>18.0</v>
       </c>
-      <c r="E53" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="14"/>
-      <c r="T53" s="14"/>
-      <c r="U53" s="14"/>
-      <c r="V53" s="14"/>
-      <c r="W53" s="14"/>
-      <c r="X53" s="14"/>
-      <c r="Y53" s="14"/>
+      <c r="E53" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="12">
+        <v>17.0</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="15"/>
+      <c r="Y53" s="15"/>
     </row>
     <row r="54">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="14"/>
-      <c r="W54" s="14"/>
-      <c r="X54" s="14"/>
-      <c r="Y54" s="14"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="15"/>
+      <c r="U54" s="15"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="15"/>
+      <c r="X54" s="15"/>
+      <c r="Y54" s="15"/>
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B55" s="12">
-        <v>0.0</v>
+        <f>Z14</f>
+        <v>2</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>63</v>
@@ -2631,126 +2812,138 @@
       <c r="E55" s="12">
         <v>18.0</v>
       </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14"/>
-      <c r="T55" s="14"/>
-      <c r="U55" s="14"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="14"/>
-      <c r="X55" s="14"/>
-      <c r="Y55" s="14"/>
+      <c r="F55" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="G55" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="H55" s="12">
+        <v>16.0</v>
+      </c>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="15"/>
+      <c r="T55" s="15"/>
+      <c r="U55" s="15"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="15"/>
+      <c r="Y55" s="15"/>
     </row>
     <row r="56">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="14"/>
-      <c r="T56" s="14"/>
-      <c r="U56" s="14"/>
-      <c r="V56" s="14"/>
-      <c r="W56" s="14"/>
-      <c r="X56" s="14"/>
-      <c r="Y56" s="14"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="15"/>
+      <c r="U56" s="15"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="15"/>
+      <c r="Y56" s="15"/>
     </row>
     <row r="57">
       <c r="A57" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B57" s="12">
-        <f> Z3 +Z7</f>
-        <v>25</v>
+        <f> Z3 +Z7 +Z6 +Z7</f>
+        <v>44</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D57" s="17">
         <v>3.0</v>
       </c>
       <c r="E57" s="13">
         <v>7.0</v>
       </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="14"/>
-      <c r="T57" s="14"/>
-      <c r="U57" s="14"/>
-      <c r="V57" s="14"/>
-      <c r="W57" s="14"/>
-      <c r="X57" s="14"/>
-      <c r="Y57" s="14"/>
+      <c r="F57" s="12">
+        <v>16.0</v>
+      </c>
+      <c r="G57" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="H57" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="15"/>
+      <c r="T57" s="15"/>
+      <c r="U57" s="15"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="15"/>
+      <c r="X57" s="15"/>
+      <c r="Y57" s="15"/>
     </row>
     <row r="58">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="14"/>
-      <c r="R58" s="14"/>
-      <c r="S58" s="14"/>
-      <c r="T58" s="14"/>
-      <c r="U58" s="14"/>
-      <c r="V58" s="14"/>
-      <c r="W58" s="14"/>
-      <c r="X58" s="14"/>
-      <c r="Y58" s="14"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="15"/>
+      <c r="S58" s="15"/>
+      <c r="T58" s="15"/>
+      <c r="U58" s="15"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="15"/>
+      <c r="X58" s="15"/>
+      <c r="Y58" s="15"/>
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
         <v>67</v>
       </c>
       <c r="B59" s="12">
-        <f> Z5</f>
-        <v>11</v>
+        <f> Z5 +Z11 +Z6</f>
+        <v>26</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>66</v>
@@ -2758,56 +2951,62 @@
       <c r="D59" s="13">
         <v>5.0</v>
       </c>
-      <c r="E59" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="14"/>
-      <c r="S59" s="14"/>
-      <c r="T59" s="14"/>
-      <c r="U59" s="14"/>
-      <c r="V59" s="14"/>
-      <c r="W59" s="14"/>
-      <c r="X59" s="14"/>
-      <c r="Y59" s="14"/>
+      <c r="E59" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="H59" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="15"/>
+      <c r="T59" s="15"/>
+      <c r="U59" s="15"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="15"/>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="15"/>
     </row>
     <row r="60">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="14"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="14"/>
-      <c r="T60" s="14"/>
-      <c r="U60" s="14"/>
-      <c r="V60" s="14"/>
-      <c r="W60" s="14"/>
-      <c r="X60" s="14"/>
-      <c r="Y60" s="14"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="15"/>
+      <c r="S60" s="15"/>
+      <c r="T60" s="15"/>
+      <c r="U60" s="15"/>
+      <c r="V60" s="15"/>
+      <c r="W60" s="15"/>
+      <c r="X60" s="15"/>
+      <c r="Y60" s="15"/>
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
@@ -2822,64 +3021,70 @@
       <c r="D61" s="12">
         <v>20.0</v>
       </c>
-      <c r="E61" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="14"/>
-      <c r="T61" s="14"/>
-      <c r="U61" s="14"/>
-      <c r="V61" s="14"/>
-      <c r="W61" s="14"/>
-      <c r="X61" s="14"/>
-      <c r="Y61" s="14"/>
+      <c r="E61" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="12">
+        <v>18.0</v>
+      </c>
+      <c r="G61" s="12">
+        <v>21.0</v>
+      </c>
+      <c r="H61" s="12">
+        <v>19.0</v>
+      </c>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="15"/>
+      <c r="U61" s="15"/>
+      <c r="V61" s="15"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="15"/>
     </row>
     <row r="62">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="14"/>
-      <c r="R62" s="14"/>
-      <c r="S62" s="14"/>
-      <c r="T62" s="14"/>
-      <c r="U62" s="14"/>
-      <c r="V62" s="14"/>
-      <c r="W62" s="14"/>
-      <c r="X62" s="14"/>
-      <c r="Y62" s="14"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="15"/>
+      <c r="U62" s="15"/>
+      <c r="V62" s="15"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="15"/>
+      <c r="Y62" s="15"/>
     </row>
     <row r="63">
       <c r="A63" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B63" s="12">
-        <f>Z12</f>
-        <v>4</v>
+        <f>Z12 +Z10 +Z8</f>
+        <v>18</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>69</v>
@@ -2890,26 +3095,32 @@
       <c r="E63" s="13">
         <v>12.0</v>
       </c>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="14"/>
-      <c r="R63" s="14"/>
-      <c r="S63" s="14"/>
-      <c r="T63" s="14"/>
-      <c r="U63" s="14"/>
-      <c r="V63" s="14"/>
-      <c r="W63" s="14"/>
-      <c r="X63" s="14"/>
-      <c r="Y63" s="14"/>
+      <c r="F63" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="G63" s="12">
+        <v>19.0</v>
+      </c>
+      <c r="H63" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="15"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="15"/>
+      <c r="U63" s="15"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="15"/>
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
@@ -2931,14 +3142,14 @@
       </c>
       <c r="B66" s="12">
         <f> B5+B7</f>
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E66" s="12">
         <f> B66+B67+B68+B69+B72+B73+B80+B79+B77+B76+B75</f>
-        <v>226</v>
+        <v>526</v>
       </c>
       <c r="W66" s="20">
         <v>1.0</v>
@@ -2953,14 +3164,14 @@
       </c>
       <c r="B67" s="12">
         <f> B9+B11</f>
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E67" s="12">
         <f> B71+B70</f>
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="W67" s="22">
         <v>2.0</v>
@@ -2975,14 +3186,14 @@
       </c>
       <c r="B68" s="12">
         <f> B13+B15</f>
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E68" s="12">
         <f> B78+B74</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W68" s="23">
         <v>3.0</v>
@@ -2997,7 +3208,7 @@
       </c>
       <c r="B69" s="12">
         <f>B17+B19</f>
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="W69" s="24">
         <v>4.0</v>
@@ -3012,7 +3223,7 @@
       </c>
       <c r="B70" s="12">
         <f> B21+B23</f>
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="W70" s="24">
         <v>5.0</v>
@@ -3027,7 +3238,7 @@
       </c>
       <c r="B71" s="12">
         <f> B25+B27</f>
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="W71" s="24">
         <v>6.0</v>
@@ -3057,7 +3268,7 @@
       </c>
       <c r="B73" s="12">
         <f>B33+B35</f>
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="W73" s="24">
         <v>8.0</v>
@@ -3072,7 +3283,7 @@
       </c>
       <c r="B74" s="12">
         <f> B45+B47</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W74" s="24"/>
       <c r="X74" s="21"/>
@@ -3083,7 +3294,7 @@
       </c>
       <c r="B75" s="12">
         <f> B37+B39</f>
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="W75" s="24">
         <v>9.0</v>
@@ -3098,7 +3309,7 @@
       </c>
       <c r="B76" s="12">
         <f>B41+B43</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W76" s="24">
         <v>10.0</v>
@@ -3113,7 +3324,7 @@
       </c>
       <c r="B77" s="12">
         <f> B49+B51</f>
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="W77" s="24">
         <v>12.0</v>
@@ -3128,7 +3339,7 @@
       </c>
       <c r="B78" s="12">
         <f> B53+B55</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W78" s="24">
         <v>13.0</v>
@@ -3143,7 +3354,7 @@
       </c>
       <c r="B79" s="12">
         <f> B57+B59</f>
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="W79" s="24">
         <v>14.0</v>
@@ -3158,7 +3369,7 @@
       </c>
       <c r="B80" s="12">
         <f> B61+B63</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="W80" s="24">
         <v>15.0</v>
@@ -3169,7 +3380,7 @@
     </row>
     <row r="81">
       <c r="W81" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X81" s="26"/>
     </row>
@@ -3253,6 +3464,15 @@
       </c>
       <c r="C83" s="30" t="s">
         <v>81</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F83" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="W83" s="31"/>
     </row>
@@ -3266,10 +3486,19 @@
         <v>47</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C85" s="30" t="s">
-        <v>83</v>
+        <v>86</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E85" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F85" s="30" t="s">
+        <v>89</v>
       </c>
       <c r="W85" s="31"/>
     </row>
@@ -3283,14 +3512,20 @@
         <v>29</v>
       </c>
       <c r="B87" s="32" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
+        <v>91</v>
+      </c>
+      <c r="D87" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E87" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F87" s="33" t="s">
+        <v>94</v>
+      </c>
       <c r="G87" s="34"/>
       <c r="H87" s="34"/>
       <c r="I87" s="34"/>

--- a/docs/classifiche/classifica2025.xlsx
+++ b/docs/classifiche/classifica2025.xlsx
@@ -2065,8 +2065,8 @@
         <v>47</v>
       </c>
       <c r="B33" s="12">
-        <f> Z1 +Z4 +Z7 +Z12 +Z1 +Z3</f>
-        <v>92</v>
+        <f> Z1 +Z4 +Z7 +Z12 +Z1 +Z2</f>
+        <v>96</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>48</v>
@@ -2187,7 +2187,9 @@
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="E36" s="13">
+        <v>14.0</v>
+      </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -2223,9 +2225,6 @@
       </c>
       <c r="D37" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="E37" s="13">
-        <v>14.0</v>
       </c>
       <c r="F37" s="12">
         <v>22.0</v>
@@ -3227,7 +3226,7 @@
       </c>
       <c r="E66" s="12">
         <f> B66+B67+B68+B69+B72+B73+B80+B79+B77+B76+B75</f>
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="W66" s="22">
         <v>1.0</v>
@@ -3346,7 +3345,7 @@
       </c>
       <c r="B73" s="12">
         <f>B33+B35</f>
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="W73" s="26">
         <v>8.0</v>

--- a/docs/classifiche/classifica2025.xlsx
+++ b/docs/classifiche/classifica2025.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="106">
   <si>
     <t>STAGIONE 2025: MOTO 2</t>
   </si>
@@ -247,9 +247,6 @@
     <t>TEMPI IN QUALIFICA</t>
   </si>
   <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
     <t>POLE POSITION</t>
   </si>
   <si>
@@ -271,6 +268,15 @@
     <t>1:34.607, Aldeguer</t>
   </si>
   <si>
+    <t>2:11.772</t>
+  </si>
+  <si>
+    <t>1:50.063, Aldeguer</t>
+  </si>
+  <si>
+    <t>1:49.931</t>
+  </si>
+  <si>
     <t>1:33.839, pole</t>
   </si>
   <si>
@@ -289,6 +295,15 @@
     <t>1:35.007, 10</t>
   </si>
   <si>
+    <t>2:13.246, 16esimo</t>
+  </si>
+  <si>
+    <t>1:51.300, 14esimo</t>
+  </si>
+  <si>
+    <t>1:49.931, pole, FL</t>
+  </si>
+  <si>
     <t>1:34.373, 2</t>
   </si>
   <si>
@@ -305,6 +320,15 @@
   </si>
   <si>
     <t>1:36.442, 16esimo</t>
+  </si>
+  <si>
+    <t>2:11.772, pole</t>
+  </si>
+  <si>
+    <t>1:51.668, 15esimo</t>
+  </si>
+  <si>
+    <t>1:51.433, 4</t>
   </si>
 </sst>
 </file>
@@ -405,7 +429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border/>
     <border>
       <left style="thin">
@@ -458,6 +482,25 @@
       </right>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -469,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -519,13 +562,13 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -558,18 +601,32 @@
     <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -789,10 +846,11 @@
     <col customWidth="1" min="1" max="1" width="25.88"/>
     <col customWidth="1" min="3" max="3" width="26.75"/>
     <col customWidth="1" min="4" max="4" width="14.25"/>
-    <col customWidth="1" min="5" max="5" width="13.88"/>
+    <col customWidth="1" min="5" max="5" width="15.13"/>
     <col customWidth="1" min="6" max="6" width="14.38"/>
     <col customWidth="1" min="7" max="7" width="15.0"/>
     <col customWidth="1" min="8" max="8" width="16.38"/>
+    <col customWidth="1" min="9" max="9" width="14.75"/>
     <col customWidth="1" min="10" max="10" width="15.75"/>
     <col customWidth="1" min="26" max="27" width="14.63"/>
   </cols>
@@ -956,8 +1014,8 @@
         <v>25</v>
       </c>
       <c r="B5" s="12">
-        <f>Z13 +Z11 +Z7 +Z10 +Z5</f>
-        <v>34</v>
+        <f>Z13 +Z11 +Z7 +Z10 +Z5 +Z9 +Z6</f>
+        <v>51</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>26</v>
@@ -980,9 +1038,15 @@
       <c r="I5" s="13">
         <v>5.0</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="J5" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="K5" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="M5" s="15"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
@@ -1041,7 +1105,8 @@
         <v>28</v>
       </c>
       <c r="B7" s="12">
-        <v>0.0</v>
+        <f>Z15</f>
+        <v>1</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>26</v>
@@ -1064,9 +1129,15 @@
       <c r="I7" s="12">
         <v>16.0</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="J7" s="12">
+        <v>18.0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
@@ -1125,8 +1196,8 @@
         <v>29</v>
       </c>
       <c r="B9" s="12">
-        <f> Z4 +Z10 +Z14 +Z2 +Z4</f>
-        <v>54</v>
+        <f> Z4 +Z10 +Z14 +Z2 +Z4 +Z11 +Z13 +Z3</f>
+        <v>78</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>30</v>
@@ -1149,9 +1220,15 @@
       <c r="I9" s="13">
         <v>4.0</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="J9" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="L9" s="17">
+        <v>3.0</v>
+      </c>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
@@ -1210,8 +1287,8 @@
         <v>31</v>
       </c>
       <c r="B11" s="12">
-        <f>Z13 +Z9 +Z13 +Z11 +Z11</f>
-        <v>23</v>
+        <f>Z13 +Z9 +Z13 +Z11 +Z11 +Z14 +Z10 +Z12</f>
+        <v>35</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>30</v>
@@ -1234,9 +1311,15 @@
       <c r="I11" s="13">
         <v>11.0</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="J11" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="K11" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="L11" s="13">
+        <v>12.0</v>
+      </c>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
@@ -1295,8 +1378,8 @@
         <v>32</v>
       </c>
       <c r="B13" s="12">
-        <f>Z14 +Z8 +Z11 +Z9 +Z15</f>
-        <v>23</v>
+        <f>Z14 +Z8 +Z11 +Z9 +Z15 +Z13</f>
+        <v>26</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>33</v>
@@ -1319,9 +1402,15 @@
       <c r="I13" s="13">
         <v>15.0</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
+      <c r="J13" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>16.0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>19.0</v>
+      </c>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
@@ -1380,8 +1469,8 @@
         <v>34</v>
       </c>
       <c r="B15" s="12">
-        <f> Z6 +Z5 +Z8</f>
-        <v>29</v>
+        <f> Z6 +Z5 +Z8 +Z7 +Z4 +Z11</f>
+        <v>56</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>33</v>
@@ -1404,9 +1493,15 @@
       <c r="I15" s="13">
         <v>8.0</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
+      <c r="J15" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>11.0</v>
+      </c>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
@@ -1463,8 +1558,8 @@
         <v>35</v>
       </c>
       <c r="B17" s="12">
-        <f>Z12 +Z4 +Z3 +Z6</f>
-        <v>43</v>
+        <f>Z12 +Z4 +Z3 +Z6 +Z12 +Z8</f>
+        <v>55</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>36</v>
@@ -1487,9 +1582,15 @@
       <c r="I17" s="13">
         <v>6.0</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
+      <c r="J17" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="13">
+        <v>8.0</v>
+      </c>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
@@ -1542,8 +1643,8 @@
         <v>37</v>
       </c>
       <c r="B19" s="12">
-        <f> Z8 + Z2 +Z5 +Z4 +Z4</f>
-        <v>65</v>
+        <f> Z8 + Z2 +Z5 +Z4 +Z4 +Z4 +Z2 +Z7</f>
+        <v>107</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>36</v>
@@ -1566,9 +1667,15 @@
       <c r="I19" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="J19" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="K19" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="L19" s="13">
+        <v>7.0</v>
+      </c>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
@@ -1618,8 +1725,8 @@
         <v>38</v>
       </c>
       <c r="B21" s="12">
-        <f>Z2 +Z2 +Z1</f>
-        <v>65</v>
+        <f>Z2 +Z2 +Z1 +Z1 +Z5+Z2</f>
+        <v>121</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>39</v>
@@ -1642,9 +1749,15 @@
       <c r="I21" s="11">
         <v>1.0</v>
       </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
+      <c r="J21" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="K21" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="L21" s="19">
+        <v>2.0</v>
+      </c>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
@@ -1685,15 +1798,15 @@
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
       <c r="Y22" s="15"/>
-      <c r="Z22" s="19"/>
+      <c r="Z22" s="20"/>
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="12">
-        <f>Z9 +Z1 +Z10</f>
-        <v>38</v>
+        <f>Z9 +Z1 +Z10 +Z1</f>
+        <v>63</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>39</v>
@@ -1716,9 +1829,15 @@
       <c r="I23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
+      <c r="J23" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
@@ -1732,7 +1851,7 @@
       <c r="W23" s="15"/>
       <c r="X23" s="15"/>
       <c r="Y23" s="15"/>
-      <c r="Z23" s="19"/>
+      <c r="Z23" s="20"/>
     </row>
     <row r="24">
       <c r="A24" s="15"/>
@@ -1760,15 +1879,15 @@
       <c r="W24" s="15"/>
       <c r="X24" s="15"/>
       <c r="Y24" s="15"/>
-      <c r="Z24" s="19"/>
+      <c r="Z24" s="20"/>
     </row>
     <row r="25">
       <c r="A25" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="12">
-        <f> Z9 + Z1 +Z8 +Z3 +Z3</f>
-        <v>72</v>
+        <f> Z9 + Z1 +Z8 +Z3 +Z3 +Z8 +Z5</f>
+        <v>91</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>42</v>
@@ -1788,12 +1907,18 @@
       <c r="H25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="21">
         <v>3.0</v>
       </c>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
+      <c r="J25" s="12">
+        <v>16.0</v>
+      </c>
+      <c r="K25" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="L25" s="13">
+        <v>5.0</v>
+      </c>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
@@ -1807,7 +1932,7 @@
       <c r="W25" s="15"/>
       <c r="X25" s="15"/>
       <c r="Y25" s="15"/>
-      <c r="Z25" s="19"/>
+      <c r="Z25" s="20"/>
     </row>
     <row r="26">
       <c r="A26" s="15"/>
@@ -1835,15 +1960,15 @@
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
       <c r="Y26" s="15"/>
-      <c r="Z26" s="19"/>
+      <c r="Z26" s="20"/>
     </row>
     <row r="27">
       <c r="A27" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="12">
-        <f>Z11 +Z6 +Z6 +Z5 +Z9</f>
-        <v>43</v>
+        <f>Z11 +Z6 +Z6 +Z5 +Z9 +Z2 +Z3</f>
+        <v>79</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>42</v>
@@ -1866,9 +1991,15 @@
       <c r="I27" s="13">
         <v>9.0</v>
       </c>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
+      <c r="J27" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="K27" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
@@ -1882,7 +2013,7 @@
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
       <c r="Y27" s="15"/>
-      <c r="Z27" s="19"/>
+      <c r="Z27" s="20"/>
     </row>
     <row r="28">
       <c r="A28" s="15"/>
@@ -1910,14 +2041,15 @@
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
       <c r="Y28" s="15"/>
-      <c r="Z28" s="19"/>
+      <c r="Z28" s="20"/>
     </row>
     <row r="29">
       <c r="A29" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B29" s="12">
-        <v>0.0</v>
+        <f>Z15</f>
+        <v>1</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>45</v>
@@ -1940,9 +2072,15 @@
       <c r="I29" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
+      <c r="J29" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="K29" s="12">
+        <v>17.0</v>
+      </c>
+      <c r="L29" s="12">
+        <v>20.0</v>
+      </c>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
@@ -1956,7 +2094,7 @@
       <c r="W29" s="15"/>
       <c r="X29" s="15"/>
       <c r="Y29" s="15"/>
-      <c r="Z29" s="19"/>
+      <c r="Z29" s="20"/>
     </row>
     <row r="30">
       <c r="A30" s="15"/>
@@ -1984,14 +2122,15 @@
       <c r="W30" s="15"/>
       <c r="X30" s="15"/>
       <c r="Y30" s="15"/>
-      <c r="Z30" s="19"/>
+      <c r="Z30" s="20"/>
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B31" s="12">
-        <v>0.0</v>
+        <f>Z13</f>
+        <v>3</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>45</v>
@@ -2014,9 +2153,15 @@
       <c r="I31" s="12">
         <v>17.0</v>
       </c>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
+      <c r="J31" s="12">
+        <v>17.0</v>
+      </c>
+      <c r="K31" s="12">
+        <v>18.0</v>
+      </c>
+      <c r="L31" s="13">
+        <v>13.0</v>
+      </c>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
       <c r="O31" s="15"/>
@@ -2030,7 +2175,7 @@
       <c r="W31" s="15"/>
       <c r="X31" s="15"/>
       <c r="Y31" s="15"/>
-      <c r="Z31" s="19"/>
+      <c r="Z31" s="20"/>
     </row>
     <row r="32">
       <c r="A32" s="15"/>
@@ -2058,15 +2203,15 @@
       <c r="W32" s="15"/>
       <c r="X32" s="15"/>
       <c r="Y32" s="15"/>
-      <c r="Z32" s="19"/>
+      <c r="Z32" s="20"/>
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B33" s="12">
-        <f> Z1 +Z4 +Z7 +Z12 +Z1 +Z2</f>
-        <v>96</v>
+        <f> Z1 +Z4 +Z7 +Z12 +Z1 +Z2 +Z11 +Z1</f>
+        <v>126</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>48</v>
@@ -2086,12 +2231,18 @@
       <c r="H33" s="11">
         <v>1.0</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="19">
         <v>2.0</v>
       </c>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
+      <c r="J33" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="L33" s="11">
+        <v>1.0</v>
+      </c>
       <c r="M33" s="15"/>
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
@@ -2105,7 +2256,7 @@
       <c r="W33" s="15"/>
       <c r="X33" s="15"/>
       <c r="Y33" s="15"/>
-      <c r="Z33" s="19"/>
+      <c r="Z33" s="20"/>
     </row>
     <row r="34">
       <c r="A34" s="15"/>
@@ -2133,15 +2284,15 @@
       <c r="W34" s="15"/>
       <c r="X34" s="15"/>
       <c r="Y34" s="15"/>
-      <c r="Z34" s="19"/>
+      <c r="Z34" s="20"/>
     </row>
     <row r="35">
       <c r="A35" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="12">
-        <f> Z2 +Z9</f>
-        <v>27</v>
+        <f> Z2 +Z9 +Z5 +Z7 +Z4</f>
+        <v>60</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>48</v>
@@ -2164,9 +2315,15 @@
       <c r="I35" s="12">
         <v>22.0</v>
       </c>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
+      <c r="J35" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="K35" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="L35" s="13">
+        <v>4.0</v>
+      </c>
       <c r="M35" s="15"/>
       <c r="N35" s="15"/>
       <c r="O35" s="15"/>
@@ -2180,16 +2337,14 @@
       <c r="W35" s="15"/>
       <c r="X35" s="15"/>
       <c r="Y35" s="15"/>
-      <c r="Z35" s="19"/>
+      <c r="Z35" s="20"/>
     </row>
     <row r="36">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
-      <c r="E36" s="13">
-        <v>14.0</v>
-      </c>
+      <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -2210,15 +2365,15 @@
       <c r="W36" s="15"/>
       <c r="X36" s="15"/>
       <c r="Y36" s="15"/>
-      <c r="Z36" s="19"/>
+      <c r="Z36" s="20"/>
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B37" s="12">
-        <f>Z14 +Z15 +Z12 +Z13</f>
-        <v>10</v>
+        <f>Z14 +Z15 +Z12 +Z13 +Z14</f>
+        <v>12</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>51</v>
@@ -2226,6 +2381,9 @@
       <c r="D37" s="14" t="s">
         <v>27</v>
       </c>
+      <c r="E37" s="13">
+        <v>14.0</v>
+      </c>
       <c r="F37" s="12">
         <v>22.0</v>
       </c>
@@ -2238,9 +2396,15 @@
       <c r="I37" s="13">
         <v>13.0</v>
       </c>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
+      <c r="J37" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="L37" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="M37" s="15"/>
       <c r="N37" s="15"/>
       <c r="O37" s="15"/>
@@ -2254,7 +2418,7 @@
       <c r="W37" s="15"/>
       <c r="X37" s="15"/>
       <c r="Y37" s="15"/>
-      <c r="Z37" s="19"/>
+      <c r="Z37" s="20"/>
     </row>
     <row r="38">
       <c r="A38" s="15"/>
@@ -2312,9 +2476,15 @@
       <c r="I39" s="13">
         <v>10.0</v>
       </c>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
+      <c r="J39" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="L39" s="12">
+        <v>17.0</v>
+      </c>
       <c r="M39" s="15"/>
       <c r="N39" s="15"/>
       <c r="O39" s="15"/>
@@ -2385,9 +2555,15 @@
       <c r="I41" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
+      <c r="J41" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="K41" s="12">
+        <v>23.0</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="M41" s="15"/>
       <c r="N41" s="15"/>
       <c r="O41" s="15"/>
@@ -2454,10 +2630,18 @@
       <c r="H43" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
+      <c r="I43" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
       <c r="O43" s="15"/>
@@ -2504,7 +2688,8 @@
         <v>56</v>
       </c>
       <c r="B45" s="12">
-        <v>0.0</v>
+        <f>Z14</f>
+        <v>2</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>57</v>
@@ -2527,9 +2712,15 @@
       <c r="I45" s="12">
         <v>20.0</v>
       </c>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
+      <c r="J45" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="L45" s="13">
+        <v>14.0</v>
+      </c>
       <c r="M45" s="15"/>
       <c r="N45" s="15"/>
       <c r="O45" s="15"/>
@@ -2600,9 +2791,15 @@
       <c r="I47" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
+      <c r="J47" s="12">
+        <v>21.0</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" s="12">
+        <v>18.0</v>
+      </c>
       <c r="M47" s="15"/>
       <c r="N47" s="15"/>
       <c r="O47" s="15"/>
@@ -2649,8 +2846,8 @@
         <v>59</v>
       </c>
       <c r="B49" s="12">
-        <f> Z7 +Z3 +Z12 +Z14 +Z7</f>
-        <v>40</v>
+        <f> Z7 +Z3 +Z12 +Z14 +Z7 +Z6 +Z12 +Z9</f>
+        <v>61</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>60</v>
@@ -2673,9 +2870,15 @@
       <c r="I49" s="13">
         <v>7.0</v>
       </c>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
+      <c r="J49" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="K49" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="L49" s="13">
+        <v>9.0</v>
+      </c>
       <c r="M49" s="15"/>
       <c r="N49" s="15"/>
       <c r="O49" s="15"/>
@@ -2722,8 +2925,8 @@
         <v>61</v>
       </c>
       <c r="B51" s="12">
-        <f>Z3 +Z1</f>
-        <v>41</v>
+        <f>Z3 +Z1 +Z3</f>
+        <v>57</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>60</v>
@@ -2746,9 +2949,15 @@
       <c r="I51" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
+      <c r="J51" s="21">
+        <v>3.0</v>
+      </c>
+      <c r="K51" s="12">
+        <v>21.0</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="M51" s="15"/>
       <c r="N51" s="15"/>
       <c r="O51" s="15"/>
@@ -2818,9 +3027,15 @@
       <c r="I53" s="12">
         <v>19.0</v>
       </c>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
+      <c r="J53" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="M53" s="15"/>
       <c r="N53" s="15"/>
       <c r="O53" s="15"/>
@@ -2891,9 +3106,15 @@
       <c r="I55" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
+      <c r="J55" s="12">
+        <v>19.0</v>
+      </c>
+      <c r="K55" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L55" s="12">
+        <v>16.0</v>
+      </c>
       <c r="M55" s="15"/>
       <c r="N55" s="15"/>
       <c r="O55" s="15"/>
@@ -2940,8 +3161,8 @@
         <v>65</v>
       </c>
       <c r="B57" s="12">
-        <f> Z3 +Z7 +Z6 +Z7</f>
-        <v>44</v>
+        <f> Z3 +Z7 +Z6 +Z7 +Z8 +Z6</f>
+        <v>62</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>66</v>
@@ -2964,9 +3185,15 @@
       <c r="I57" s="12">
         <v>18.0</v>
       </c>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
+      <c r="J57" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="K57" s="12">
+        <v>24.0</v>
+      </c>
+      <c r="L57" s="13">
+        <v>6.0</v>
+      </c>
       <c r="M57" s="15"/>
       <c r="N57" s="15"/>
       <c r="O57" s="15"/>
@@ -3013,8 +3240,8 @@
         <v>67</v>
       </c>
       <c r="B59" s="12">
-        <f> Z5 +Z11 +Z6 +Z14</f>
-        <v>28</v>
+        <f> Z5 +Z11 +Z6 +Z14 +Z10 +Z10</f>
+        <v>40</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>66</v>
@@ -3037,9 +3264,15 @@
       <c r="I59" s="13">
         <v>14.0</v>
       </c>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
+      <c r="J59" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="K59" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L59" s="13">
+        <v>10.0</v>
+      </c>
       <c r="M59" s="15"/>
       <c r="N59" s="15"/>
       <c r="O59" s="15"/>
@@ -3086,7 +3319,8 @@
         <v>68</v>
       </c>
       <c r="B61" s="12">
-        <v>0.0</v>
+        <f>Z15</f>
+        <v>1</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>69</v>
@@ -3109,9 +3343,15 @@
       <c r="I61" s="12">
         <v>21.0</v>
       </c>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
+      <c r="J61" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61" s="12">
+        <v>19.0</v>
+      </c>
+      <c r="L61" s="13">
+        <v>15.0</v>
+      </c>
       <c r="M61" s="15"/>
       <c r="N61" s="15"/>
       <c r="O61" s="15"/>
@@ -3158,8 +3398,8 @@
         <v>70</v>
       </c>
       <c r="B63" s="12">
-        <f>Z12 +Z10 +Z8 +Z12</f>
-        <v>22</v>
+        <f>Z12 +Z10 +Z8 +Z12 +Z9</f>
+        <v>29</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>69</v>
@@ -3182,9 +3422,15 @@
       <c r="I63" s="13">
         <v>12.0</v>
       </c>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
+      <c r="J63" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="K63" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="L63" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="M63" s="15"/>
       <c r="N63" s="15"/>
       <c r="O63" s="15"/>
@@ -3219,14 +3465,14 @@
       </c>
       <c r="B66" s="12">
         <f> B5+B7</f>
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E66" s="12">
         <f> B66+B67+B68+B69+B72+B73+B80+B79+B77+B76+B75</f>
-        <v>618</v>
+        <v>900</v>
       </c>
       <c r="W66" s="22">
         <v>1.0</v>
@@ -3241,14 +3487,14 @@
       </c>
       <c r="B67" s="12">
         <f> B9+B11</f>
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E67" s="12">
         <f> B71+B70</f>
-        <v>218</v>
+        <v>354</v>
       </c>
       <c r="W67" s="24">
         <v>2.0</v>
@@ -3263,14 +3509,14 @@
       </c>
       <c r="B68" s="12">
         <f> B13+B15</f>
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E68" s="12">
         <f> B78+B74</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W68" s="25">
         <v>3.0</v>
@@ -3285,7 +3531,7 @@
       </c>
       <c r="B69" s="12">
         <f>B17+B19</f>
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="W69" s="26">
         <v>4.0</v>
@@ -3300,7 +3546,7 @@
       </c>
       <c r="B70" s="12">
         <f> B21+B23</f>
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="W70" s="26">
         <v>5.0</v>
@@ -3315,7 +3561,7 @@
       </c>
       <c r="B71" s="12">
         <f> B25+B27</f>
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="W71" s="26">
         <v>6.0</v>
@@ -3330,7 +3576,7 @@
       </c>
       <c r="B72" s="12">
         <f> B29+B31</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W72" s="26">
         <v>7.0</v>
@@ -3345,7 +3591,7 @@
       </c>
       <c r="B73" s="12">
         <f>B33+B35</f>
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="W73" s="26">
         <v>8.0</v>
@@ -3360,7 +3606,7 @@
       </c>
       <c r="B74" s="12">
         <f> B45+B47</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W74" s="26"/>
       <c r="X74" s="23"/>
@@ -3371,7 +3617,7 @@
       </c>
       <c r="B75" s="12">
         <f> B37+B39</f>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W75" s="26">
         <v>9.0</v>
@@ -3401,7 +3647,7 @@
       </c>
       <c r="B77" s="12">
         <f> B49+B51</f>
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="W77" s="26">
         <v>12.0</v>
@@ -3431,7 +3677,7 @@
       </c>
       <c r="B79" s="12">
         <f> B57+B59</f>
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="W79" s="26">
         <v>14.0</v>
@@ -3446,7 +3692,7 @@
       </c>
       <c r="B80" s="12">
         <f> B61+B63</f>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="W80" s="26">
         <v>15.0</v>
@@ -3499,7 +3745,7 @@
         <v>14</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="N82" s="9" t="s">
         <v>16</v>
@@ -3534,100 +3780,138 @@
     </row>
     <row r="83">
       <c r="A83" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B83" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B83" s="31" t="s">
+      <c r="C83" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="32" t="s">
+      <c r="D83" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="D83" s="32" t="s">
+      <c r="E83" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="E83" s="32" t="s">
+      <c r="F83" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="F83" s="32" t="s">
+      <c r="G83" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="G83" s="32" t="s">
+      <c r="H83" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="W83" s="33"/>
+      <c r="I83" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="J83" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="W83" s="35"/>
     </row>
     <row r="84">
-      <c r="A84" s="33"/>
-      <c r="B84" s="33"/>
-      <c r="W84" s="33"/>
+      <c r="A84" s="35"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="W84" s="35"/>
     </row>
     <row r="85">
       <c r="A85" s="31" t="s">
         <v>47</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D85" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="E85" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="F85" s="32" t="s">
+      <c r="D85" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="G85" s="32" t="s">
+      <c r="E85" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="W85" s="33"/>
+      <c r="F85" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G85" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H85" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="I85" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="J85" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="W85" s="35"/>
     </row>
     <row r="86">
-      <c r="A86" s="33"/>
-      <c r="B86" s="33"/>
-      <c r="W86" s="33"/>
+      <c r="A86" s="35"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="W86" s="35"/>
     </row>
     <row r="87">
-      <c r="A87" s="34" t="s">
+      <c r="A87" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C87" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D87" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="E87" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="F87" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G87" s="35" t="s">
+      <c r="B87" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="H87" s="36"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36"/>
-      <c r="K87" s="36"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="36"/>
-      <c r="N87" s="36"/>
-      <c r="O87" s="36"/>
-      <c r="P87" s="36"/>
-      <c r="Q87" s="36"/>
-      <c r="R87" s="36"/>
-      <c r="S87" s="36"/>
-      <c r="T87" s="36"/>
-      <c r="U87" s="36"/>
-      <c r="V87" s="36"/>
-      <c r="W87" s="37"/>
+      <c r="C87" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E87" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="F87" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="G87" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="H87" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="I87" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="J87" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="K87" s="42"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="42"/>
+      <c r="N87" s="42"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="42"/>
+      <c r="Q87" s="42"/>
+      <c r="R87" s="42"/>
+      <c r="S87" s="42"/>
+      <c r="T87" s="42"/>
+      <c r="U87" s="42"/>
+      <c r="V87" s="42"/>
+      <c r="W87" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/classifiche/classifica2025.xlsx
+++ b/docs/classifiche/classifica2025.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="115">
   <si>
     <t>STAGIONE 2025: MOTO 2</t>
   </si>
@@ -277,6 +277,15 @@
     <t>1:49.931</t>
   </si>
   <si>
+    <t>1:35.406, Garcia</t>
+  </si>
+  <si>
+    <t>1:21.948</t>
+  </si>
+  <si>
+    <t>1:40.649</t>
+  </si>
+  <si>
     <t>1:33.839, pole</t>
   </si>
   <si>
@@ -304,6 +313,15 @@
     <t>1:49.931, pole, FL</t>
   </si>
   <si>
+    <t>1:35.839, 2</t>
+  </si>
+  <si>
+    <t>1:21.948, pole</t>
+  </si>
+  <si>
+    <t>1:40.649, pole, FL</t>
+  </si>
+  <si>
     <t>1:34.373, 2</t>
   </si>
   <si>
@@ -329,6 +347,15 @@
   </si>
   <si>
     <t>1:51.433, 4</t>
+  </si>
+  <si>
+    <t>1:36.774, 3</t>
+  </si>
+  <si>
+    <t>1:22.614, 9</t>
+  </si>
+  <si>
+    <t>1:42.800, 10</t>
   </si>
 </sst>
 </file>
@@ -559,11 +586,11 @@
     <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -852,6 +879,7 @@
     <col customWidth="1" min="8" max="8" width="16.38"/>
     <col customWidth="1" min="9" max="9" width="14.75"/>
     <col customWidth="1" min="10" max="10" width="15.75"/>
+    <col customWidth="1" min="13" max="13" width="14.25"/>
     <col customWidth="1" min="26" max="27" width="14.63"/>
   </cols>
   <sheetData>
@@ -1014,8 +1042,8 @@
         <v>25</v>
       </c>
       <c r="B5" s="12">
-        <f>Z13 +Z11 +Z7 +Z10 +Z5 +Z9 +Z6</f>
-        <v>51</v>
+        <f>Z13 +Z11 +Z7 +Z10 +Z5 +Z9 +Z6 + Z8 + Z7</f>
+        <v>68</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>26</v>
@@ -1047,9 +1075,15 @@
       <c r="L5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
+      <c r="M5" s="12">
+        <v>16.0</v>
+      </c>
+      <c r="N5" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="O5" s="13">
+        <v>7.0</v>
+      </c>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
@@ -1138,9 +1172,15 @@
       <c r="L7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
+      <c r="M7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
@@ -1196,8 +1236,8 @@
         <v>29</v>
       </c>
       <c r="B9" s="12">
-        <f> Z4 +Z10 +Z14 +Z2 +Z4 +Z11 +Z13 +Z3</f>
-        <v>78</v>
+        <f> Z4 +Z10 +Z14 +Z2 +Z4 +Z11 +Z13 +Z3 + Z2 + Z2</f>
+        <v>118</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>30</v>
@@ -1229,9 +1269,15 @@
       <c r="L9" s="17">
         <v>3.0</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
+      <c r="M9" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="18">
+        <v>2.0</v>
+      </c>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
@@ -1287,8 +1333,8 @@
         <v>31</v>
       </c>
       <c r="B11" s="12">
-        <f>Z13 +Z9 +Z13 +Z11 +Z11 +Z14 +Z10 +Z12</f>
-        <v>35</v>
+        <f>Z13 +Z9 +Z13 +Z11 +Z11 +Z14 +Z10 +Z12 + Z15 + Z11 + Z12</f>
+        <v>45</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>30</v>
@@ -1320,9 +1366,15 @@
       <c r="L11" s="13">
         <v>12.0</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
+      <c r="M11" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="N11" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="O11" s="13">
+        <v>12.0</v>
+      </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
@@ -1378,8 +1430,8 @@
         <v>32</v>
       </c>
       <c r="B13" s="12">
-        <f>Z14 +Z8 +Z11 +Z9 +Z15 +Z13</f>
-        <v>26</v>
+        <f>Z14 +Z8 +Z11 +Z9 +Z15 +Z13 + Z11</f>
+        <v>31</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>33</v>
@@ -1411,9 +1463,15 @@
       <c r="L13" s="12">
         <v>19.0</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
+      <c r="M13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="13">
+        <v>11.0</v>
+      </c>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
       <c r="R13" s="15"/>
@@ -1469,8 +1527,8 @@
         <v>34</v>
       </c>
       <c r="B15" s="12">
-        <f> Z6 +Z5 +Z8 +Z7 +Z4 +Z11</f>
-        <v>56</v>
+        <f> Z6 +Z5 +Z8 +Z7 +Z4 +Z11 + Z6</f>
+        <v>66</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>33</v>
@@ -1502,9 +1560,15 @@
       <c r="L15" s="13">
         <v>11.0</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
+      <c r="M15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="12">
+        <v>17.0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>6.0</v>
+      </c>
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
@@ -1548,7 +1612,7 @@
       <c r="W16" s="15"/>
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
-      <c r="Z16" s="18"/>
+      <c r="Z16" s="19"/>
       <c r="AA16" s="13">
         <v>13.0</v>
       </c>
@@ -1558,8 +1622,8 @@
         <v>35</v>
       </c>
       <c r="B17" s="12">
-        <f>Z12 +Z4 +Z3 +Z6 +Z12 +Z8</f>
-        <v>55</v>
+        <f>Z12 +Z4 +Z3 +Z6 +Z12 +Z8 + Z7 + Z5</f>
+        <v>75</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>36</v>
@@ -1591,9 +1655,15 @@
       <c r="L17" s="13">
         <v>8.0</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
+      <c r="M17" s="12">
+        <v>17.0</v>
+      </c>
+      <c r="N17" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="O17" s="13">
+        <v>5.0</v>
+      </c>
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
@@ -1643,8 +1713,8 @@
         <v>37</v>
       </c>
       <c r="B19" s="12">
-        <f> Z8 + Z2 +Z5 +Z4 +Z4 +Z4 +Z2 +Z7</f>
-        <v>107</v>
+        <f> Z8 + Z2 +Z5 +Z4 +Z4 +Z4 +Z2 +Z7 + Z12 + Z13</f>
+        <v>114</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>36</v>
@@ -1670,15 +1740,21 @@
       <c r="J19" s="13">
         <v>4.0</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="18">
         <v>2.0</v>
       </c>
       <c r="L19" s="13">
         <v>7.0</v>
       </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
+      <c r="M19" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="N19" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
@@ -1725,8 +1801,8 @@
         <v>38</v>
       </c>
       <c r="B21" s="12">
-        <f>Z2 +Z2 +Z1 +Z1 +Z5+Z2</f>
-        <v>121</v>
+        <f>Z2 +Z2 +Z1 +Z1 +Z5+Z2 + Z14 + Z15</f>
+        <v>124</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>39</v>
@@ -1755,12 +1831,18 @@
       <c r="K21" s="13">
         <v>5.0</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="18">
         <v>2.0</v>
       </c>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
+      <c r="M21" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="N21" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
@@ -1805,8 +1887,8 @@
         <v>40</v>
       </c>
       <c r="B23" s="12">
-        <f>Z9 +Z1 +Z10 +Z1</f>
-        <v>63</v>
+        <f>Z9 +Z1 +Z10 +Z1 + Z4 + Z4</f>
+        <v>89</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>39</v>
@@ -1838,9 +1920,15 @@
       <c r="L23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
+      <c r="M23" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="N23" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
@@ -1886,8 +1974,8 @@
         <v>41</v>
       </c>
       <c r="B25" s="12">
-        <f> Z9 + Z1 +Z8 +Z3 +Z3 +Z8 +Z5</f>
-        <v>91</v>
+        <f> Z9 + Z1 +Z8 +Z3 +Z3 +Z8 +Z5 + Z11 + Z1 + Z13</f>
+        <v>124</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>42</v>
@@ -1919,9 +2007,15 @@
       <c r="L25" s="13">
         <v>5.0</v>
       </c>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
+      <c r="M25" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="N25" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="O25" s="13">
+        <v>13.0</v>
+      </c>
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
@@ -1967,8 +2061,8 @@
         <v>43</v>
       </c>
       <c r="B27" s="12">
-        <f>Z11 +Z6 +Z6 +Z5 +Z9 +Z2 +Z3</f>
-        <v>79</v>
+        <f>Z11 +Z6 +Z6 +Z5 +Z9 +Z2 +Z3 + Z10 + Z10</f>
+        <v>91</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>42</v>
@@ -1991,7 +2085,7 @@
       <c r="I27" s="13">
         <v>9.0</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="18">
         <v>2.0</v>
       </c>
       <c r="K27" s="17">
@@ -2000,9 +2094,15 @@
       <c r="L27" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
+      <c r="M27" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="N27" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
@@ -2081,9 +2181,15 @@
       <c r="L29" s="12">
         <v>20.0</v>
       </c>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
+      <c r="M29" s="12">
+        <v>23.0</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
@@ -2162,9 +2268,15 @@
       <c r="L31" s="13">
         <v>13.0</v>
       </c>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
+      <c r="M31" s="12">
+        <v>18.0</v>
+      </c>
+      <c r="N31" s="12">
+        <v>19.0</v>
+      </c>
+      <c r="O31" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
       <c r="R31" s="15"/>
@@ -2210,8 +2322,8 @@
         <v>47</v>
       </c>
       <c r="B33" s="12">
-        <f> Z1 +Z4 +Z7 +Z12 +Z1 +Z2 +Z11 +Z1</f>
-        <v>126</v>
+        <f> Z1 +Z4 +Z7 +Z12 +Z1 +Z2 +Z11 +Z1 +Z1 + Z5 + Z1</f>
+        <v>187</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>48</v>
@@ -2231,7 +2343,7 @@
       <c r="H33" s="11">
         <v>1.0</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="18">
         <v>2.0</v>
       </c>
       <c r="J33" s="14" t="s">
@@ -2243,9 +2355,15 @@
       <c r="L33" s="11">
         <v>1.0</v>
       </c>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
+      <c r="M33" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="N33" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="O33" s="11">
+        <v>1.0</v>
+      </c>
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
       <c r="R33" s="15"/>
@@ -2291,8 +2409,8 @@
         <v>49</v>
       </c>
       <c r="B35" s="12">
-        <f> Z2 +Z9 +Z5 +Z7 +Z4</f>
-        <v>60</v>
+        <f> Z2 +Z9 +Z5 +Z7 +Z4 + Z9 + Z12 + Z8</f>
+        <v>79</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>48</v>
@@ -2324,9 +2442,15 @@
       <c r="L35" s="13">
         <v>4.0</v>
       </c>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
+      <c r="M35" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="N35" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="O35" s="13">
+        <v>8.0</v>
+      </c>
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
       <c r="R35" s="15"/>
@@ -2372,8 +2496,8 @@
         <v>50</v>
       </c>
       <c r="B37" s="12">
-        <f>Z14 +Z15 +Z12 +Z13 +Z14</f>
-        <v>12</v>
+        <f>Z14 +Z15 +Z12 +Z13 +Z14 + Z8</f>
+        <v>20</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>51</v>
@@ -2405,9 +2529,15 @@
       <c r="L37" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
+      <c r="M37" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="N37" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O37" s="12">
+        <v>19.0</v>
+      </c>
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
       <c r="R37" s="15"/>
@@ -2452,8 +2582,8 @@
         <v>52</v>
       </c>
       <c r="B39" s="12">
-        <f> Z10 +Z5 +Z8 +Z10</f>
-        <v>31</v>
+        <f> Z10 +Z5 +Z8 +Z10 + Z5 + Z4 + Z10</f>
+        <v>61</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>51</v>
@@ -2485,9 +2615,15 @@
       <c r="L39" s="12">
         <v>17.0</v>
       </c>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
+      <c r="M39" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="N39" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="O39" s="13">
+        <v>10.0</v>
+      </c>
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
       <c r="R39" s="15"/>
@@ -2564,9 +2700,15 @@
       <c r="L41" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
+      <c r="M41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41" s="12">
+        <v>18.0</v>
+      </c>
+      <c r="O41" s="12">
+        <v>18.0</v>
+      </c>
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
       <c r="R41" s="15"/>
@@ -2642,9 +2784,15 @@
       <c r="L43" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
+      <c r="M43" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" s="12">
+        <v>16.0</v>
+      </c>
+      <c r="O43" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
       <c r="R43" s="15"/>
@@ -2721,9 +2869,15 @@
       <c r="L45" s="13">
         <v>14.0</v>
       </c>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
+      <c r="M45" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="N45" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O45" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="P45" s="15"/>
       <c r="Q45" s="15"/>
       <c r="R45" s="15"/>
@@ -2800,9 +2954,15 @@
       <c r="L47" s="12">
         <v>18.0</v>
       </c>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
+      <c r="M47" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N47" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O47" s="12">
+        <v>16.0</v>
+      </c>
       <c r="P47" s="15"/>
       <c r="Q47" s="15"/>
       <c r="R47" s="15"/>
@@ -2846,8 +3006,8 @@
         <v>59</v>
       </c>
       <c r="B49" s="12">
-        <f> Z7 +Z3 +Z12 +Z14 +Z7 +Z6 +Z12 +Z9</f>
-        <v>61</v>
+        <f> Z7 +Z3 +Z12 +Z14 +Z7 +Z6 +Z12 +Z9 + Z6 + Z9 + Z14</f>
+        <v>80</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>60</v>
@@ -2879,9 +3039,15 @@
       <c r="L49" s="13">
         <v>9.0</v>
       </c>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
+      <c r="M49" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="N49" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="O49" s="13">
+        <v>14.0</v>
+      </c>
       <c r="P49" s="15"/>
       <c r="Q49" s="15"/>
       <c r="R49" s="15"/>
@@ -2925,8 +3091,8 @@
         <v>61</v>
       </c>
       <c r="B51" s="12">
-        <f>Z3 +Z1 +Z3</f>
-        <v>57</v>
+        <f>Z3 +Z1 +Z3 + Z3 + Z2</f>
+        <v>93</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>60</v>
@@ -2958,9 +3124,15 @@
       <c r="L51" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
+      <c r="M51" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="N51" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="O51" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="P51" s="15"/>
       <c r="Q51" s="15"/>
       <c r="R51" s="15"/>
@@ -3036,9 +3208,15 @@
       <c r="L53" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
+      <c r="M53" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="N53" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O53" s="12">
+        <v>20.0</v>
+      </c>
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
       <c r="R53" s="15"/>
@@ -3115,9 +3293,15 @@
       <c r="L55" s="12">
         <v>16.0</v>
       </c>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
+      <c r="M55" s="12">
+        <v>21.0</v>
+      </c>
+      <c r="N55" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="O55" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
       <c r="R55" s="15"/>
@@ -3161,8 +3345,8 @@
         <v>65</v>
       </c>
       <c r="B57" s="12">
-        <f> Z3 +Z7 +Z6 +Z7 +Z8 +Z6</f>
-        <v>62</v>
+        <f> Z3 +Z7 +Z6 +Z7 +Z8 +Z6 + Z7 + Z3 + Z3</f>
+        <v>103</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>66</v>
@@ -3194,9 +3378,15 @@
       <c r="L57" s="13">
         <v>6.0</v>
       </c>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
+      <c r="M57" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="N57" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="O57" s="17">
+        <v>3.0</v>
+      </c>
       <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
       <c r="R57" s="15"/>
@@ -3240,8 +3430,8 @@
         <v>67</v>
       </c>
       <c r="B59" s="12">
-        <f> Z5 +Z11 +Z6 +Z14 +Z10 +Z10</f>
-        <v>40</v>
+        <f> Z5 +Z11 +Z6 +Z14 +Z10 +Z10 + Z13 + Z6 + Z9</f>
+        <v>60</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>66</v>
@@ -3273,9 +3463,15 @@
       <c r="L59" s="13">
         <v>10.0</v>
       </c>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
+      <c r="M59" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="N59" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="O59" s="13">
+        <v>9.0</v>
+      </c>
       <c r="P59" s="15"/>
       <c r="Q59" s="15"/>
       <c r="R59" s="15"/>
@@ -3352,9 +3548,15 @@
       <c r="L61" s="13">
         <v>15.0</v>
       </c>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
+      <c r="M61" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N61" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O61" s="12">
+        <v>17.0</v>
+      </c>
       <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
       <c r="R61" s="15"/>
@@ -3398,8 +3600,8 @@
         <v>70</v>
       </c>
       <c r="B63" s="12">
-        <f>Z12 +Z10 +Z8 +Z12 +Z9</f>
-        <v>29</v>
+        <f>Z12 +Z10 +Z8 +Z12 +Z9 + Z14 + Z15</f>
+        <v>32</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>69</v>
@@ -3431,9 +3633,15 @@
       <c r="L63" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
+      <c r="M63" s="12">
+        <v>19.0</v>
+      </c>
+      <c r="N63" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="O63" s="13">
+        <v>15.0</v>
+      </c>
       <c r="P63" s="15"/>
       <c r="Q63" s="15"/>
       <c r="R63" s="15"/>
@@ -3465,14 +3673,14 @@
       </c>
       <c r="B66" s="12">
         <f> B5+B7</f>
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E66" s="12">
         <f> B66+B67+B68+B69+B72+B73+B80+B79+B77+B76+B75</f>
-        <v>900</v>
+        <v>1246</v>
       </c>
       <c r="W66" s="22">
         <v>1.0</v>
@@ -3487,14 +3695,14 @@
       </c>
       <c r="B67" s="12">
         <f> B9+B11</f>
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E67" s="12">
         <f> B71+B70</f>
-        <v>354</v>
+        <v>428</v>
       </c>
       <c r="W67" s="24">
         <v>2.0</v>
@@ -3509,7 +3717,7 @@
       </c>
       <c r="B68" s="12">
         <f> B13+B15</f>
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>76</v>
@@ -3531,7 +3739,7 @@
       </c>
       <c r="B69" s="12">
         <f>B17+B19</f>
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="W69" s="26">
         <v>4.0</v>
@@ -3546,7 +3754,7 @@
       </c>
       <c r="B70" s="12">
         <f> B21+B23</f>
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="W70" s="26">
         <v>5.0</v>
@@ -3561,7 +3769,7 @@
       </c>
       <c r="B71" s="12">
         <f> B25+B27</f>
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="W71" s="26">
         <v>6.0</v>
@@ -3591,7 +3799,7 @@
       </c>
       <c r="B73" s="12">
         <f>B33+B35</f>
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="W73" s="26">
         <v>8.0</v>
@@ -3617,7 +3825,7 @@
       </c>
       <c r="B75" s="12">
         <f> B37+B39</f>
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="W75" s="26">
         <v>9.0</v>
@@ -3647,7 +3855,7 @@
       </c>
       <c r="B77" s="12">
         <f> B49+B51</f>
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="W77" s="26">
         <v>12.0</v>
@@ -3677,7 +3885,7 @@
       </c>
       <c r="B79" s="12">
         <f> B57+B59</f>
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="W79" s="26">
         <v>14.0</v>
@@ -3692,7 +3900,7 @@
       </c>
       <c r="B80" s="12">
         <f> B61+B63</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W80" s="26">
         <v>15.0</v>
@@ -3808,6 +4016,15 @@
       </c>
       <c r="J83" s="34" t="s">
         <v>87</v>
+      </c>
+      <c r="K83" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="L83" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="M83" s="34" t="s">
+        <v>90</v>
       </c>
       <c r="W83" s="35"/>
     </row>
@@ -3828,31 +4045,40 @@
         <v>47</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D85" s="33" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E85" s="33" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F85" s="31" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G85" s="31" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H85" s="31" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I85" s="31" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J85" s="34" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="K85" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="L85" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="M85" s="34" t="s">
+        <v>102</v>
       </c>
       <c r="W85" s="35"/>
     </row>
@@ -3873,35 +4099,41 @@
         <v>29</v>
       </c>
       <c r="B87" s="38" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C87" s="39" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E87" s="40" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F87" s="38" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G87" s="38" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H87" s="38" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J87" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="K87" s="42"/>
-      <c r="L87" s="42"/>
-      <c r="M87" s="42"/>
+        <v>111</v>
+      </c>
+      <c r="K87" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="L87" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="M87" s="41" t="s">
+        <v>114</v>
+      </c>
       <c r="N87" s="42"/>
       <c r="O87" s="42"/>
       <c r="P87" s="42"/>

--- a/docs/classifiche/classifica2025.xlsx
+++ b/docs/classifiche/classifica2025.xlsx
@@ -539,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -588,9 +588,6 @@
     </xf>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -1612,7 +1609,7 @@
       <c r="W16" s="15"/>
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
-      <c r="Z16" s="19"/>
+      <c r="Z16" s="3"/>
       <c r="AA16" s="13">
         <v>13.0</v>
       </c>
@@ -1674,6 +1671,7 @@
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
+      <c r="Z17" s="3"/>
       <c r="AA17" s="13">
         <v>14.0</v>
       </c>
@@ -1704,6 +1702,7 @@
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
       <c r="Y18" s="15"/>
+      <c r="Z18" s="3"/>
       <c r="AA18" s="13">
         <v>15.0</v>
       </c>
@@ -1880,7 +1879,7 @@
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
       <c r="Y22" s="15"/>
-      <c r="Z22" s="20"/>
+      <c r="Z22" s="19"/>
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
@@ -1939,7 +1938,7 @@
       <c r="W23" s="15"/>
       <c r="X23" s="15"/>
       <c r="Y23" s="15"/>
-      <c r="Z23" s="20"/>
+      <c r="Z23" s="19"/>
     </row>
     <row r="24">
       <c r="A24" s="15"/>
@@ -1967,7 +1966,7 @@
       <c r="W24" s="15"/>
       <c r="X24" s="15"/>
       <c r="Y24" s="15"/>
-      <c r="Z24" s="20"/>
+      <c r="Z24" s="19"/>
     </row>
     <row r="25">
       <c r="A25" s="12" t="s">
@@ -1995,7 +1994,7 @@
       <c r="H25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="20">
         <v>3.0</v>
       </c>
       <c r="J25" s="12">
@@ -2026,7 +2025,7 @@
       <c r="W25" s="15"/>
       <c r="X25" s="15"/>
       <c r="Y25" s="15"/>
-      <c r="Z25" s="20"/>
+      <c r="Z25" s="19"/>
     </row>
     <row r="26">
       <c r="A26" s="15"/>
@@ -2054,7 +2053,7 @@
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
       <c r="Y26" s="15"/>
-      <c r="Z26" s="20"/>
+      <c r="Z26" s="19"/>
     </row>
     <row r="27">
       <c r="A27" s="12" t="s">
@@ -2113,7 +2112,7 @@
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
       <c r="Y27" s="15"/>
-      <c r="Z27" s="20"/>
+      <c r="Z27" s="19"/>
     </row>
     <row r="28">
       <c r="A28" s="15"/>
@@ -2141,7 +2140,7 @@
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
       <c r="Y28" s="15"/>
-      <c r="Z28" s="20"/>
+      <c r="Z28" s="19"/>
     </row>
     <row r="29">
       <c r="A29" s="12" t="s">
@@ -2200,7 +2199,7 @@
       <c r="W29" s="15"/>
       <c r="X29" s="15"/>
       <c r="Y29" s="15"/>
-      <c r="Z29" s="20"/>
+      <c r="Z29" s="19"/>
     </row>
     <row r="30">
       <c r="A30" s="15"/>
@@ -2228,7 +2227,7 @@
       <c r="W30" s="15"/>
       <c r="X30" s="15"/>
       <c r="Y30" s="15"/>
-      <c r="Z30" s="20"/>
+      <c r="Z30" s="19"/>
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
@@ -2287,7 +2286,7 @@
       <c r="W31" s="15"/>
       <c r="X31" s="15"/>
       <c r="Y31" s="15"/>
-      <c r="Z31" s="20"/>
+      <c r="Z31" s="19"/>
     </row>
     <row r="32">
       <c r="A32" s="15"/>
@@ -2315,7 +2314,7 @@
       <c r="W32" s="15"/>
       <c r="X32" s="15"/>
       <c r="Y32" s="15"/>
-      <c r="Z32" s="20"/>
+      <c r="Z32" s="19"/>
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
@@ -2374,7 +2373,7 @@
       <c r="W33" s="15"/>
       <c r="X33" s="15"/>
       <c r="Y33" s="15"/>
-      <c r="Z33" s="20"/>
+      <c r="Z33" s="19"/>
     </row>
     <row r="34">
       <c r="A34" s="15"/>
@@ -2402,7 +2401,7 @@
       <c r="W34" s="15"/>
       <c r="X34" s="15"/>
       <c r="Y34" s="15"/>
-      <c r="Z34" s="20"/>
+      <c r="Z34" s="19"/>
     </row>
     <row r="35">
       <c r="A35" s="12" t="s">
@@ -2461,7 +2460,7 @@
       <c r="W35" s="15"/>
       <c r="X35" s="15"/>
       <c r="Y35" s="15"/>
-      <c r="Z35" s="20"/>
+      <c r="Z35" s="19"/>
     </row>
     <row r="36">
       <c r="A36" s="15"/>
@@ -2489,7 +2488,7 @@
       <c r="W36" s="15"/>
       <c r="X36" s="15"/>
       <c r="Y36" s="15"/>
-      <c r="Z36" s="20"/>
+      <c r="Z36" s="19"/>
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
@@ -2548,7 +2547,7 @@
       <c r="W37" s="15"/>
       <c r="X37" s="15"/>
       <c r="Y37" s="15"/>
-      <c r="Z37" s="20"/>
+      <c r="Z37" s="19"/>
     </row>
     <row r="38">
       <c r="A38" s="15"/>
@@ -3115,7 +3114,7 @@
       <c r="I51" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J51" s="21">
+      <c r="J51" s="20">
         <v>3.0</v>
       </c>
       <c r="K51" s="12">
@@ -3682,10 +3681,10 @@
         <f> B66+B67+B68+B69+B72+B73+B80+B79+B77+B76+B75</f>
         <v>1246</v>
       </c>
-      <c r="W66" s="22">
+      <c r="W66" s="21">
         <v>1.0</v>
       </c>
-      <c r="X66" s="23">
+      <c r="X66" s="22">
         <v>25.0</v>
       </c>
     </row>
@@ -3704,10 +3703,10 @@
         <f> B71+B70</f>
         <v>428</v>
       </c>
-      <c r="W67" s="24">
+      <c r="W67" s="23">
         <v>2.0</v>
       </c>
-      <c r="X67" s="23">
+      <c r="X67" s="22">
         <v>20.0</v>
       </c>
     </row>
@@ -3726,10 +3725,10 @@
         <f> B78+B74</f>
         <v>6</v>
       </c>
-      <c r="W68" s="25">
+      <c r="W68" s="24">
         <v>3.0</v>
       </c>
-      <c r="X68" s="23">
+      <c r="X68" s="22">
         <v>16.0</v>
       </c>
     </row>
@@ -3741,10 +3740,10 @@
         <f>B17+B19</f>
         <v>189</v>
       </c>
-      <c r="W69" s="26">
+      <c r="W69" s="25">
         <v>4.0</v>
       </c>
-      <c r="X69" s="23">
+      <c r="X69" s="22">
         <v>13.0</v>
       </c>
     </row>
@@ -3756,10 +3755,10 @@
         <f> B21+B23</f>
         <v>213</v>
       </c>
-      <c r="W70" s="26">
+      <c r="W70" s="25">
         <v>5.0</v>
       </c>
-      <c r="X70" s="23">
+      <c r="X70" s="22">
         <v>11.0</v>
       </c>
     </row>
@@ -3771,10 +3770,10 @@
         <f> B25+B27</f>
         <v>215</v>
       </c>
-      <c r="W71" s="26">
+      <c r="W71" s="25">
         <v>6.0</v>
       </c>
-      <c r="X71" s="23">
+      <c r="X71" s="22">
         <v>10.0</v>
       </c>
     </row>
@@ -3786,10 +3785,10 @@
         <f> B29+B31</f>
         <v>4</v>
       </c>
-      <c r="W72" s="26">
+      <c r="W72" s="25">
         <v>7.0</v>
       </c>
-      <c r="X72" s="23">
+      <c r="X72" s="22">
         <v>9.0</v>
       </c>
     </row>
@@ -3801,10 +3800,10 @@
         <f>B33+B35</f>
         <v>266</v>
       </c>
-      <c r="W73" s="26">
+      <c r="W73" s="25">
         <v>8.0</v>
       </c>
-      <c r="X73" s="23">
+      <c r="X73" s="22">
         <v>8.0</v>
       </c>
     </row>
@@ -3816,8 +3815,8 @@
         <f> B45+B47</f>
         <v>4</v>
       </c>
-      <c r="W74" s="26"/>
-      <c r="X74" s="23"/>
+      <c r="W74" s="25"/>
+      <c r="X74" s="22"/>
     </row>
     <row r="75">
       <c r="A75" s="12" t="s">
@@ -3827,10 +3826,10 @@
         <f> B37+B39</f>
         <v>81</v>
       </c>
-      <c r="W75" s="26">
+      <c r="W75" s="25">
         <v>9.0</v>
       </c>
-      <c r="X75" s="23">
+      <c r="X75" s="22">
         <v>7.0</v>
       </c>
     </row>
@@ -3842,10 +3841,10 @@
         <f>B41+B43</f>
         <v>8</v>
       </c>
-      <c r="W76" s="26">
+      <c r="W76" s="25">
         <v>10.0</v>
       </c>
-      <c r="X76" s="23">
+      <c r="X76" s="22">
         <v>6.0</v>
       </c>
     </row>
@@ -3857,10 +3856,10 @@
         <f> B49+B51</f>
         <v>173</v>
       </c>
-      <c r="W77" s="26">
+      <c r="W77" s="25">
         <v>12.0</v>
       </c>
-      <c r="X77" s="23">
+      <c r="X77" s="22">
         <v>4.0</v>
       </c>
     </row>
@@ -3872,10 +3871,10 @@
         <f> B53+B55</f>
         <v>2</v>
       </c>
-      <c r="W78" s="26">
+      <c r="W78" s="25">
         <v>13.0</v>
       </c>
-      <c r="X78" s="23">
+      <c r="X78" s="22">
         <v>3.0</v>
       </c>
     </row>
@@ -3887,10 +3886,10 @@
         <f> B57+B59</f>
         <v>163</v>
       </c>
-      <c r="W79" s="26">
+      <c r="W79" s="25">
         <v>14.0</v>
       </c>
-      <c r="X79" s="23">
+      <c r="X79" s="22">
         <v>2.0</v>
       </c>
     </row>
@@ -3902,27 +3901,27 @@
         <f> B61+B63</f>
         <v>33</v>
       </c>
-      <c r="W80" s="26">
+      <c r="W80" s="25">
         <v>15.0</v>
       </c>
-      <c r="X80" s="23">
+      <c r="X80" s="22">
         <v>1.0</v>
       </c>
     </row>
     <row r="81">
-      <c r="W81" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="X81" s="28"/>
+      <c r="W81" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="X81" s="27"/>
     </row>
     <row r="82">
-      <c r="A82" s="29" t="s">
+      <c r="A82" s="28" t="s">
         <v>77</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C82" s="30" t="s">
+      <c r="C82" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D82" s="9" t="s">
@@ -3987,163 +3986,163 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C83" s="32" t="s">
+      <c r="C83" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D83" s="33" t="s">
+      <c r="D83" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E83" s="33" t="s">
+      <c r="E83" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="F83" s="31" t="s">
+      <c r="F83" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="G83" s="31" t="s">
+      <c r="G83" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="H83" s="31" t="s">
+      <c r="H83" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="I83" s="31" t="s">
+      <c r="I83" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="J83" s="34" t="s">
+      <c r="J83" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="K83" s="34" t="s">
+      <c r="K83" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="L83" s="34" t="s">
+      <c r="L83" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="M83" s="34" t="s">
+      <c r="M83" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="W83" s="35"/>
+      <c r="W83" s="34"/>
     </row>
     <row r="84">
-      <c r="A84" s="35"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
-      <c r="I84" s="35"/>
-      <c r="W84" s="35"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="W84" s="34"/>
     </row>
     <row r="85">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="C85" s="32" t="s">
+      <c r="C85" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="D85" s="33" t="s">
+      <c r="D85" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="E85" s="33" t="s">
+      <c r="E85" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="F85" s="31" t="s">
+      <c r="F85" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="G85" s="31" t="s">
+      <c r="G85" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="H85" s="31" t="s">
+      <c r="H85" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="I85" s="31" t="s">
+      <c r="I85" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="J85" s="34" t="s">
+      <c r="J85" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="K85" s="34" t="s">
+      <c r="K85" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="L85" s="34" t="s">
+      <c r="L85" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="M85" s="34" t="s">
+      <c r="M85" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="W85" s="35"/>
+      <c r="W85" s="34"/>
     </row>
     <row r="86">
-      <c r="A86" s="35"/>
-      <c r="B86" s="35"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-      <c r="W86" s="35"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="W86" s="34"/>
     </row>
     <row r="87">
-      <c r="A87" s="38" t="s">
+      <c r="A87" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="38" t="s">
+      <c r="B87" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="C87" s="39" t="s">
+      <c r="C87" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="D87" s="40" t="s">
+      <c r="D87" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="E87" s="40" t="s">
+      <c r="E87" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="F87" s="38" t="s">
+      <c r="F87" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="G87" s="38" t="s">
+      <c r="G87" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="H87" s="38" t="s">
+      <c r="H87" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="I87" s="38" t="s">
+      <c r="I87" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="J87" s="41" t="s">
+      <c r="J87" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="K87" s="41" t="s">
+      <c r="K87" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="L87" s="41" t="s">
+      <c r="L87" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="M87" s="41" t="s">
+      <c r="M87" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="N87" s="42"/>
-      <c r="O87" s="42"/>
-      <c r="P87" s="42"/>
-      <c r="Q87" s="42"/>
-      <c r="R87" s="42"/>
-      <c r="S87" s="42"/>
-      <c r="T87" s="42"/>
-      <c r="U87" s="42"/>
-      <c r="V87" s="42"/>
-      <c r="W87" s="43"/>
+      <c r="N87" s="41"/>
+      <c r="O87" s="41"/>
+      <c r="P87" s="41"/>
+      <c r="Q87" s="41"/>
+      <c r="R87" s="41"/>
+      <c r="S87" s="41"/>
+      <c r="T87" s="41"/>
+      <c r="U87" s="41"/>
+      <c r="V87" s="41"/>
+      <c r="W87" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/classifiche/classifica2025.xlsx
+++ b/docs/classifiche/classifica2025.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="121">
   <si>
     <t>STAGIONE 2025: MOTO 2</t>
   </si>
@@ -286,6 +286,12 @@
     <t>1:40.649</t>
   </si>
   <si>
+    <t>1:33.073, Lopez</t>
+  </si>
+  <si>
+    <t>1:48,664, Aldeguer</t>
+  </si>
+  <si>
     <t>1:33.839, pole</t>
   </si>
   <si>
@@ -322,6 +328,12 @@
     <t>1:40.649, pole, FL</t>
   </si>
   <si>
+    <t>1:33.610, 10, FL</t>
+  </si>
+  <si>
+    <t>1:49.364, 10</t>
+  </si>
+  <si>
     <t>1:34.373, 2</t>
   </si>
   <si>
@@ -356,6 +368,12 @@
   </si>
   <si>
     <t>1:42.800, 10</t>
+  </si>
+  <si>
+    <t>1:33.206, 2</t>
+  </si>
+  <si>
+    <t>1:50.301, 14esimo</t>
   </si>
 </sst>
 </file>
@@ -877,6 +895,7 @@
     <col customWidth="1" min="9" max="9" width="14.75"/>
     <col customWidth="1" min="10" max="10" width="15.75"/>
     <col customWidth="1" min="13" max="13" width="14.25"/>
+    <col customWidth="1" min="15" max="15" width="14.75"/>
     <col customWidth="1" min="26" max="27" width="14.63"/>
   </cols>
   <sheetData>
@@ -1039,8 +1058,8 @@
         <v>25</v>
       </c>
       <c r="B5" s="12">
-        <f>Z13 +Z11 +Z7 +Z10 +Z5 +Z9 +Z6 + Z8 + Z7</f>
-        <v>68</v>
+        <f>Z13 +Z11 +Z7 +Z10 +Z5 +Z9 +Z6 + Z8 + Z7 +Z4</f>
+        <v>81</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>26</v>
@@ -1081,8 +1100,12 @@
       <c r="O5" s="13">
         <v>7.0</v>
       </c>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
+      <c r="P5" s="12">
+        <v>20.0</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>4.0</v>
+      </c>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
@@ -1136,8 +1159,8 @@
         <v>28</v>
       </c>
       <c r="B7" s="12">
-        <f>Z15</f>
-        <v>1</v>
+        <f>Z15 +Z12</f>
+        <v>5</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>26</v>
@@ -1178,8 +1201,12 @@
       <c r="O7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
+      <c r="P7" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
@@ -1275,8 +1302,12 @@
       <c r="O9" s="18">
         <v>2.0</v>
       </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
+      <c r="P9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
@@ -1330,8 +1361,8 @@
         <v>31</v>
       </c>
       <c r="B11" s="12">
-        <f>Z13 +Z9 +Z13 +Z11 +Z11 +Z14 +Z10 +Z12 + Z15 + Z11 + Z12</f>
-        <v>45</v>
+        <f>Z13 +Z9 +Z13 +Z11 +Z11 +Z14 +Z10 +Z12 + Z15 + Z11 + Z12 +Z10 +Z9</f>
+        <v>58</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>30</v>
@@ -1372,8 +1403,12 @@
       <c r="O11" s="13">
         <v>12.0</v>
       </c>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
+      <c r="P11" s="13">
+        <v>10.0</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>9.0</v>
+      </c>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
@@ -1427,8 +1462,8 @@
         <v>32</v>
       </c>
       <c r="B13" s="12">
-        <f>Z14 +Z8 +Z11 +Z9 +Z15 +Z13 + Z11</f>
-        <v>31</v>
+        <f>Z14 +Z8 +Z11 +Z9 +Z15 +Z13 + Z11 +Z11 +Z8</f>
+        <v>44</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>33</v>
@@ -1469,8 +1504,12 @@
       <c r="O13" s="13">
         <v>11.0</v>
       </c>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
+      <c r="P13" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>8.0</v>
+      </c>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
@@ -1524,8 +1563,8 @@
         <v>34</v>
       </c>
       <c r="B15" s="12">
-        <f> Z6 +Z5 +Z8 +Z7 +Z4 +Z11 + Z6</f>
-        <v>66</v>
+        <f> Z6 +Z5 +Z8 +Z7 +Z4 +Z11 + Z6 +Z6 +Z7</f>
+        <v>85</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>33</v>
@@ -1566,8 +1605,12 @@
       <c r="O15" s="13">
         <v>6.0</v>
       </c>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
+      <c r="P15" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>7.0</v>
+      </c>
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
@@ -1619,8 +1662,8 @@
         <v>35</v>
       </c>
       <c r="B17" s="12">
-        <f>Z12 +Z4 +Z3 +Z6 +Z12 +Z8 + Z7 + Z5</f>
-        <v>75</v>
+        <f>Z12 +Z4 +Z3 +Z6 +Z12 +Z8 + Z7 + Z5 +Z7</f>
+        <v>84</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>36</v>
@@ -1661,8 +1704,12 @@
       <c r="O17" s="13">
         <v>5.0</v>
       </c>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
+      <c r="P17" s="13">
+        <v>7.0</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
       <c r="T17" s="15"/>
@@ -1712,8 +1759,8 @@
         <v>37</v>
       </c>
       <c r="B19" s="12">
-        <f> Z8 + Z2 +Z5 +Z4 +Z4 +Z4 +Z2 +Z7 + Z12 + Z13</f>
-        <v>114</v>
+        <f> Z8 + Z2 +Z5 +Z4 +Z4 +Z4 +Z2 +Z7 + Z12 + Z13 +Z12</f>
+        <v>118</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>36</v>
@@ -1754,8 +1801,12 @@
       <c r="O19" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
+      <c r="P19" s="12">
+        <v>21.0</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>12.0</v>
+      </c>
       <c r="R19" s="15"/>
       <c r="S19" s="15"/>
       <c r="T19" s="15"/>
@@ -1800,8 +1851,8 @@
         <v>38</v>
       </c>
       <c r="B21" s="12">
-        <f>Z2 +Z2 +Z1 +Z1 +Z5+Z2 + Z14 + Z15</f>
-        <v>124</v>
+        <f>Z2 +Z2 +Z1 +Z1 +Z5+Z2 + Z14 + Z15 +Z4</f>
+        <v>137</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>39</v>
@@ -1842,8 +1893,12 @@
       <c r="O21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
+      <c r="P21" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
       <c r="T21" s="15"/>
@@ -1886,8 +1941,8 @@
         <v>40</v>
       </c>
       <c r="B23" s="12">
-        <f>Z9 +Z1 +Z10 +Z1 + Z4 + Z4</f>
-        <v>89</v>
+        <f>Z9 +Z1 +Z10 +Z1 + Z4 + Z4 +Z8 +Z5</f>
+        <v>108</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>39</v>
@@ -1928,8 +1983,12 @@
       <c r="O23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
+      <c r="P23" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>5.0</v>
+      </c>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
@@ -2015,8 +2074,12 @@
       <c r="O25" s="13">
         <v>13.0</v>
       </c>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
+      <c r="P25" s="12">
+        <v>22.0</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="R25" s="15"/>
       <c r="S25" s="15"/>
       <c r="T25" s="15"/>
@@ -2060,8 +2123,8 @@
         <v>43</v>
       </c>
       <c r="B27" s="12">
-        <f>Z11 +Z6 +Z6 +Z5 +Z9 +Z2 +Z3 + Z10 + Z10</f>
-        <v>91</v>
+        <f>Z11 +Z6 +Z6 +Z5 +Z9 +Z2 +Z3 + Z10 + Z10 +Z13</f>
+        <v>94</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>42</v>
@@ -2102,8 +2165,12 @@
       <c r="O27" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
+      <c r="P27" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>13.0</v>
+      </c>
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
       <c r="T27" s="15"/>
@@ -2147,8 +2214,8 @@
         <v>44</v>
       </c>
       <c r="B29" s="12">
-        <f>Z15</f>
-        <v>1</v>
+        <f>Z15 +Z13</f>
+        <v>4</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>45</v>
@@ -2189,8 +2256,12 @@
       <c r="O29" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
+      <c r="P29" s="13">
+        <v>13.0</v>
+      </c>
+      <c r="Q29" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
@@ -2276,8 +2347,12 @@
       <c r="O31" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
+      <c r="P31" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="R31" s="15"/>
       <c r="S31" s="15"/>
       <c r="T31" s="15"/>
@@ -2321,8 +2396,8 @@
         <v>47</v>
       </c>
       <c r="B33" s="12">
-        <f> Z1 +Z4 +Z7 +Z12 +Z1 +Z2 +Z11 +Z1 +Z1 + Z5 + Z1</f>
-        <v>187</v>
+        <f> Z1 +Z4 +Z7 +Z12 +Z1 +Z2 +Z11 +Z1 +Z1 + Z5 + Z1 +Z1 +Z3</f>
+        <v>228</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>48</v>
@@ -2363,8 +2438,12 @@
       <c r="O33" s="11">
         <v>1.0</v>
       </c>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
+      <c r="P33" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="Q33" s="17">
+        <v>3.0</v>
+      </c>
       <c r="R33" s="15"/>
       <c r="S33" s="15"/>
       <c r="T33" s="15"/>
@@ -2408,8 +2487,8 @@
         <v>49</v>
       </c>
       <c r="B35" s="12">
-        <f> Z2 +Z9 +Z5 +Z7 +Z4 + Z9 + Z12 + Z8</f>
-        <v>79</v>
+        <f> Z2 +Z9 +Z5 +Z7 +Z4 + Z9 + Z12 + Z8 +Z5 +Z2</f>
+        <v>110</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>48</v>
@@ -2450,8 +2529,12 @@
       <c r="O35" s="13">
         <v>8.0</v>
       </c>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
+      <c r="P35" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="Q35" s="18">
+        <v>2.0</v>
+      </c>
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
       <c r="T35" s="15"/>
@@ -2537,8 +2620,12 @@
       <c r="O37" s="12">
         <v>19.0</v>
       </c>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
+      <c r="P37" s="12">
+        <v>19.0</v>
+      </c>
+      <c r="Q37" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
       <c r="T37" s="15"/>
@@ -2581,8 +2668,8 @@
         <v>52</v>
       </c>
       <c r="B39" s="12">
-        <f> Z10 +Z5 +Z8 +Z10 + Z5 + Z4 + Z10</f>
-        <v>61</v>
+        <f> Z10 +Z5 +Z8 +Z10 + Z5 + Z4 + Z10 +Z1</f>
+        <v>86</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>51</v>
@@ -2623,8 +2710,12 @@
       <c r="O39" s="13">
         <v>10.0</v>
       </c>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
+      <c r="P39" s="12">
+        <v>18.0</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>1.0</v>
+      </c>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
       <c r="T39" s="15"/>
@@ -2708,8 +2799,12 @@
       <c r="O41" s="12">
         <v>18.0</v>
       </c>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
+      <c r="P41" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q41" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="R41" s="15"/>
       <c r="S41" s="15"/>
       <c r="T41" s="15"/>
@@ -2792,8 +2887,12 @@
       <c r="O43" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
+      <c r="P43" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="R43" s="15"/>
       <c r="S43" s="15"/>
       <c r="T43" s="15"/>
@@ -2835,8 +2934,8 @@
         <v>56</v>
       </c>
       <c r="B45" s="12">
-        <f>Z14</f>
-        <v>2</v>
+        <f>Z14 +Z14</f>
+        <v>4</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>57</v>
@@ -2877,8 +2976,12 @@
       <c r="O45" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
+      <c r="P45" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q45" s="13">
+        <v>14.0</v>
+      </c>
       <c r="R45" s="15"/>
       <c r="S45" s="15"/>
       <c r="T45" s="15"/>
@@ -2962,8 +3065,12 @@
       <c r="O47" s="12">
         <v>16.0</v>
       </c>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
+      <c r="P47" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q47" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="R47" s="15"/>
       <c r="S47" s="15"/>
       <c r="T47" s="15"/>
@@ -3047,8 +3154,12 @@
       <c r="O49" s="13">
         <v>14.0</v>
       </c>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
+      <c r="P49" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q49" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="R49" s="15"/>
       <c r="S49" s="15"/>
       <c r="T49" s="15"/>
@@ -3090,8 +3201,8 @@
         <v>61</v>
       </c>
       <c r="B51" s="12">
-        <f>Z3 +Z1 +Z3 + Z3 + Z2</f>
-        <v>93</v>
+        <f>Z3 +Z1 +Z3 + Z3 + Z2 +Z3 +Z6</f>
+        <v>119</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>60</v>
@@ -3132,8 +3243,12 @@
       <c r="O51" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
+      <c r="P51" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="Q51" s="13">
+        <v>6.0</v>
+      </c>
       <c r="R51" s="15"/>
       <c r="S51" s="15"/>
       <c r="T51" s="15"/>
@@ -3216,8 +3331,12 @@
       <c r="O53" s="12">
         <v>20.0</v>
       </c>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
+      <c r="P53" s="12">
+        <v>16.0</v>
+      </c>
+      <c r="Q53" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="R53" s="15"/>
       <c r="S53" s="15"/>
       <c r="T53" s="15"/>
@@ -3259,8 +3378,8 @@
         <v>64</v>
       </c>
       <c r="B55" s="12">
-        <f>Z14</f>
-        <v>2</v>
+        <f>Z14 +Z14</f>
+        <v>4</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>63</v>
@@ -3301,8 +3420,12 @@
       <c r="O55" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
+      <c r="P55" s="13">
+        <v>14.0</v>
+      </c>
+      <c r="Q55" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="R55" s="15"/>
       <c r="S55" s="15"/>
       <c r="T55" s="15"/>
@@ -3344,8 +3467,8 @@
         <v>65</v>
       </c>
       <c r="B57" s="12">
-        <f> Z3 +Z7 +Z6 +Z7 +Z8 +Z6 + Z7 + Z3 + Z3</f>
-        <v>103</v>
+        <f> Z3 +Z7 +Z6 +Z7 +Z8 +Z6 + Z7 + Z3 + Z3 +Z9</f>
+        <v>110</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>66</v>
@@ -3386,8 +3509,12 @@
       <c r="O57" s="17">
         <v>3.0</v>
       </c>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
+      <c r="P57" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="Q57" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="R57" s="15"/>
       <c r="S57" s="15"/>
       <c r="T57" s="15"/>
@@ -3429,8 +3556,8 @@
         <v>67</v>
       </c>
       <c r="B59" s="12">
-        <f> Z5 +Z11 +Z6 +Z14 +Z10 +Z10 + Z13 + Z6 + Z9</f>
-        <v>60</v>
+        <f> Z5 +Z11 +Z6 +Z14 +Z10 +Z10 + Z13 + Z6 + Z9 +Z2 +Z10</f>
+        <v>86</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>66</v>
@@ -3471,8 +3598,12 @@
       <c r="O59" s="13">
         <v>9.0</v>
       </c>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
+      <c r="P59" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Q59" s="13">
+        <v>10.0</v>
+      </c>
       <c r="R59" s="15"/>
       <c r="S59" s="15"/>
       <c r="T59" s="15"/>
@@ -3514,8 +3645,8 @@
         <v>68</v>
       </c>
       <c r="B61" s="12">
-        <f>Z15</f>
-        <v>1</v>
+        <f>Z15 +Z15</f>
+        <v>2</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>69</v>
@@ -3556,8 +3687,12 @@
       <c r="O61" s="12">
         <v>17.0</v>
       </c>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
+      <c r="P61" s="13">
+        <v>15.0</v>
+      </c>
+      <c r="Q61" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="R61" s="15"/>
       <c r="S61" s="15"/>
       <c r="T61" s="15"/>
@@ -3599,8 +3734,8 @@
         <v>70</v>
       </c>
       <c r="B63" s="12">
-        <f>Z12 +Z10 +Z8 +Z12 +Z9 + Z14 + Z15</f>
-        <v>32</v>
+        <f>Z12 +Z10 +Z8 +Z12 +Z9 + Z14 + Z15 +Z11</f>
+        <v>37</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>69</v>
@@ -3641,8 +3776,12 @@
       <c r="O63" s="13">
         <v>15.0</v>
       </c>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
+      <c r="P63" s="12">
+        <v>17.0</v>
+      </c>
+      <c r="Q63" s="13">
+        <v>11.0</v>
+      </c>
       <c r="R63" s="15"/>
       <c r="S63" s="15"/>
       <c r="T63" s="15"/>
@@ -3672,14 +3811,14 @@
       </c>
       <c r="B66" s="12">
         <f> B5+B7</f>
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E66" s="12">
         <f> B66+B67+B68+B69+B72+B73+B80+B79+B77+B76+B75</f>
-        <v>1246</v>
+        <v>1486</v>
       </c>
       <c r="W66" s="21">
         <v>1.0</v>
@@ -3694,14 +3833,14 @@
       </c>
       <c r="B67" s="12">
         <f> B9+B11</f>
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>75</v>
       </c>
       <c r="E67" s="12">
         <f> B71+B70</f>
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="W67" s="23">
         <v>2.0</v>
@@ -3716,14 +3855,14 @@
       </c>
       <c r="B68" s="12">
         <f> B13+B15</f>
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E68" s="12">
         <f> B78+B74</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W68" s="24">
         <v>3.0</v>
@@ -3738,7 +3877,7 @@
       </c>
       <c r="B69" s="12">
         <f>B17+B19</f>
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="W69" s="25">
         <v>4.0</v>
@@ -3753,7 +3892,7 @@
       </c>
       <c r="B70" s="12">
         <f> B21+B23</f>
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="W70" s="25">
         <v>5.0</v>
@@ -3768,7 +3907,7 @@
       </c>
       <c r="B71" s="12">
         <f> B25+B27</f>
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="W71" s="25">
         <v>6.0</v>
@@ -3783,7 +3922,7 @@
       </c>
       <c r="B72" s="12">
         <f> B29+B31</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W72" s="25">
         <v>7.0</v>
@@ -3798,7 +3937,7 @@
       </c>
       <c r="B73" s="12">
         <f>B33+B35</f>
-        <v>266</v>
+        <v>338</v>
       </c>
       <c r="W73" s="25">
         <v>8.0</v>
@@ -3813,7 +3952,7 @@
       </c>
       <c r="B74" s="12">
         <f> B45+B47</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W74" s="25"/>
       <c r="X74" s="22"/>
@@ -3824,7 +3963,7 @@
       </c>
       <c r="B75" s="12">
         <f> B37+B39</f>
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="W75" s="25">
         <v>9.0</v>
@@ -3854,7 +3993,7 @@
       </c>
       <c r="B77" s="12">
         <f> B49+B51</f>
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="W77" s="25">
         <v>12.0</v>
@@ -3869,7 +4008,7 @@
       </c>
       <c r="B78" s="12">
         <f> B53+B55</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W78" s="25">
         <v>13.0</v>
@@ -3884,7 +4023,7 @@
       </c>
       <c r="B79" s="12">
         <f> B57+B59</f>
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="W79" s="25">
         <v>14.0</v>
@@ -3899,7 +4038,7 @@
       </c>
       <c r="B80" s="12">
         <f> B61+B63</f>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="W80" s="25">
         <v>15.0</v>
@@ -4024,6 +4163,12 @@
       </c>
       <c r="M83" s="33" t="s">
         <v>90</v>
+      </c>
+      <c r="N83" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="O83" s="33" t="s">
+        <v>92</v>
       </c>
       <c r="W83" s="34"/>
     </row>
@@ -4044,40 +4189,46 @@
         <v>47</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F85" s="30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G85" s="30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I85" s="30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J85" s="33" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K85" s="33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L85" s="33" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M85" s="33" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="N85" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="O85" s="33" t="s">
+        <v>106</v>
       </c>
       <c r="W85" s="34"/>
     </row>
@@ -4098,43 +4249,47 @@
         <v>29</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D87" s="39" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E87" s="39" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F87" s="37" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G87" s="37" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H87" s="37" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I87" s="37" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J87" s="40" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K87" s="40" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L87" s="40" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M87" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="N87" s="41"/>
-      <c r="O87" s="41"/>
+        <v>118</v>
+      </c>
+      <c r="N87" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="O87" s="40" t="s">
+        <v>120</v>
+      </c>
       <c r="P87" s="41"/>
       <c r="Q87" s="41"/>
       <c r="R87" s="41"/>
